--- a/results/consolidated_results.xlsx
+++ b/results/consolidated_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -442,24 +442,18 @@
     <col width="19" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="19" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="16" customWidth="1" min="15" max="15"/>
+    <col width="21" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
     <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="22" customWidth="1" min="17" max="17"/>
+    <col width="11" customWidth="1" min="17" max="17"/>
     <col width="11" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
-    <col width="11" customWidth="1" min="20" max="20"/>
-    <col width="11" customWidth="1" min="21" max="21"/>
-    <col width="12" customWidth="1" min="22" max="22"/>
-    <col width="13" customWidth="1" min="23" max="23"/>
-    <col width="26" customWidth="1" min="24" max="24"/>
-    <col width="22" customWidth="1" min="25" max="25"/>
-    <col width="39" customWidth="1" min="26" max="26"/>
+    <col width="12" customWidth="1" min="19" max="19"/>
+    <col width="13" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,269 +484,225 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>V_mag</t>
+          <t>Phot G Mean Mag</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phot G Mean Mag</t>
+          <t>Phot BP Mean Mag</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Phot BP Mean Mag</t>
+          <t>Phot RP Mean Mag</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Phot RP Mean Mag</t>
+          <t>BP-RP</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BP-RP</t>
+          <t>Parallax</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Parallax</t>
+          <t>T_eff [K]</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>T_eff [K]</t>
+          <t>Mass [M_Sun]</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Mass [M_Sun]</t>
+          <t>Luminosity [L_Sun]</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Luminosity [L_Sun]</t>
+          <t>Radius [R_Sun]</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Radius [R_Sun]</t>
+          <t>logg_gaia</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>HZ_limit [AU]</t>
+          <t>Gaia Spectral type</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Density [Solar unit]</t>
+          <t>HD Number</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>logg_gaia</t>
+          <t>GJ Number</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Gaia Spectral type</t>
+          <t>HIP Number</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>HD Number</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>GJ Number</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>HIP Number</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
           <t>Object Type</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Stellar Parameter Source</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>SIMBAD Spectral Type</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Readable Spectral Type (experimental)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1163549697534289664</t>
+          <t>100254161710940928</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1163549697534289664</t>
+          <t>100254161710940928</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1163549697534289664</t>
+          <t>100254161710940928</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>228.9394036629564</v>
+        <v>32.84775594570956</v>
       </c>
       <c r="E2" t="n">
-        <v>7.596967758249446</v>
+        <v>21.37728648531765</v>
       </c>
       <c r="F2" t="n">
-        <v>10.67706049429894</v>
+        <v>7.171291828155518</v>
       </c>
       <c r="G2" t="n">
-        <v>10.12505626678467</v>
+        <v>7.498966693878174</v>
       </c>
       <c r="H2" t="n">
-        <v>10.9206657409668</v>
+        <v>6.667288780212402</v>
       </c>
       <c r="I2" t="n">
-        <v>9.257136344909668</v>
+        <v>0.8316779136657715</v>
       </c>
       <c r="J2" t="n">
-        <v>1.663529396057129</v>
+        <v>31.77494755452081</v>
       </c>
       <c r="K2" t="n">
-        <v>31.57305830800776</v>
+        <v>5706.2305</v>
       </c>
       <c r="L2" t="n">
-        <v>4035.3035</v>
+        <v>0.9722631</v>
       </c>
       <c r="M2" t="n">
-        <v>0.63564074</v>
+        <v>0.9929156</v>
       </c>
       <c r="N2" t="n">
-        <v>0.10219275</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.68985665</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.484372840734659</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.936132875108034</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4.5689</v>
+        <v>1.0148537</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>4.4892</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>HD 13382</t>
+        </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>GJ 9515</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>74682</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>PM*</t>
+          <t>HIP 10218</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>BY*</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1165859359148269568</t>
+          <t>100380639907919872</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1165859359148269568</t>
+          <t>100380639907919872</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1165859359148269568</t>
+          <t>100380639907919872</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>231.9064969657568</v>
+        <v>33.07455634342676</v>
       </c>
       <c r="E3" t="n">
-        <v>10.59302812963398</v>
+        <v>21.98240642703211</v>
       </c>
       <c r="F3" t="n">
-        <v>9.811323695335389</v>
+        <v>8.256831169128418</v>
       </c>
       <c r="G3" t="n">
-        <v>9.297941207885742</v>
+        <v>8.649417877197266</v>
       </c>
       <c r="H3" t="n">
-        <v>10.05334186553955</v>
+        <v>7.692890644073486</v>
       </c>
       <c r="I3" t="n">
-        <v>8.45357608795166</v>
+        <v>0.9565272331237793</v>
       </c>
       <c r="J3" t="n">
-        <v>1.599765777587891</v>
+        <v>29.08669008667431</v>
       </c>
       <c r="K3" t="n">
-        <v>36.547564682283</v>
+        <v>5240.0024</v>
       </c>
       <c r="L3" t="n">
-        <v>4152.3936</v>
+        <v>0.87251496</v>
       </c>
       <c r="M3" t="n">
-        <v>0.68337804</v>
+        <v>0.4557252</v>
       </c>
       <c r="N3" t="n">
-        <v>0.15545471</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.75346327</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.5933902979981719</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.59762467908798</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4.5237</v>
+        <v>0.8191135</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>4.5114</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>HD 13483</t>
+        </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>GJ 3906</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>75672</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+          <t>HIP 10276</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -761,70 +711,60 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1169984108299812608</t>
+          <t>100586763978318208</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1169984108299812608</t>
+          <t>100586763978318208</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1169984108299812608</t>
+          <t>100586763978318208</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>229.896961447876</v>
+        <v>31.35875039539031</v>
       </c>
       <c r="E4" t="n">
-        <v>11.9222391634777</v>
+        <v>22.18123281954805</v>
       </c>
       <c r="F4" t="n">
-        <v>9.975199806852341</v>
+        <v>9.417668342590332</v>
       </c>
       <c r="G4" t="n">
-        <v>9.54007625579834</v>
+        <v>9.97149658203125</v>
       </c>
       <c r="H4" t="n">
-        <v>10.21389102935791</v>
+        <v>8.719937324523926</v>
       </c>
       <c r="I4" t="n">
-        <v>8.747791290283203</v>
+        <v>1.251559257507324</v>
       </c>
       <c r="J4" t="n">
-        <v>1.466099739074707</v>
+        <v>23.77041850099351</v>
       </c>
       <c r="K4" t="n">
-        <v>31.26436516952251</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4371.416</v>
+        <v>4662.9614</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6829337</v>
+        <v>0.26323253</v>
       </c>
       <c r="N4" t="n">
-        <v>0.15458062</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.68548906</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.5839524572378014</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.120200631948538</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4.6309</v>
-      </c>
-      <c r="S4" t="inlineStr">
+        <v>0.78613484</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4.5591</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -833,147 +773,113 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>109051246870008448</t>
+          <t>100665065526715008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>109051246870008448</t>
+          <t>100665065526715008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>109051246870008448</t>
+          <t>100665065526715008</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>45.80720680003026</v>
+        <v>32.75898933453841</v>
       </c>
       <c r="E5" t="n">
-        <v>22.37000259699031</v>
+        <v>22.47119596014166</v>
       </c>
       <c r="F5" t="n">
-        <v>10.83717503194809</v>
+        <v>11.47802352905273</v>
       </c>
       <c r="G5" t="n">
-        <v>10.41267871856689</v>
+        <v>12.3726806640625</v>
       </c>
       <c r="H5" t="n">
-        <v>11.07540416717529</v>
+        <v>10.5469799041748</v>
       </c>
       <c r="I5" t="n">
-        <v>9.627869606018066</v>
+        <v>1.825700759887695</v>
       </c>
       <c r="J5" t="n">
-        <v>1.447534561157227</v>
-      </c>
-      <c r="K5" t="n">
-        <v>20.99137361127316</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4398.9106</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.69312495</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.1505968</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.6682101</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.5753935715844992</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.32312417931516</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4.601</v>
-      </c>
-      <c r="S5" t="inlineStr">
+        <v>21.5989521858321</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>14211</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>*</t>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Em*</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1163192665493054336</t>
+          <t>101283987497967360</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1163192665493054336</t>
+          <t>101283987497967360</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1163192665493054336</t>
+          <t>101283987497967360</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>229.1184143838475</v>
+        <v>33.06483928126914</v>
       </c>
       <c r="E6" t="n">
-        <v>7.045020912522606</v>
+        <v>23.9574911071325</v>
       </c>
       <c r="F6" t="n">
-        <v>10.44542609818459</v>
+        <v>7.76441764831543</v>
       </c>
       <c r="G6" t="n">
-        <v>10.03621673583984</v>
+        <v>8.093173980712891</v>
       </c>
       <c r="H6" t="n">
-        <v>10.68274784088135</v>
+        <v>7.121846675872803</v>
       </c>
       <c r="I6" t="n">
-        <v>9.271669387817383</v>
+        <v>0.9713273048400879</v>
       </c>
       <c r="J6" t="n">
-        <v>1.411078453063965</v>
+        <v>31.30702271058711</v>
       </c>
       <c r="K6" t="n">
-        <v>21.19489316328587</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4457.4204</v>
+        <v>5303.233</v>
       </c>
       <c r="M6" t="n">
-        <v>0.71443903</v>
+        <v>0.61647</v>
       </c>
       <c r="N6" t="n">
-        <v>0.20070389</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.74331903</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.6618178080293029</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.739560019591314</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4.5787</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
+        <v>0.9300946</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>4.4356</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>HD 13482</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -982,70 +888,73 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>103942679624729088</t>
+          <t>101309452355657216</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>103942679624729088</t>
+          <t>101309452355657216</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>103942679624729088</t>
+          <t>101309452355657216</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>29.80341512779783</v>
+        <v>33.85397854233757</v>
       </c>
       <c r="E7" t="n">
-        <v>23.23633994067851</v>
+        <v>24.27046918211229</v>
       </c>
       <c r="F7" t="n">
-        <v>9.761058317527771</v>
+        <v>6.637241840362549</v>
       </c>
       <c r="G7" t="n">
-        <v>9.431782722473145</v>
+        <v>6.972883224487305</v>
       </c>
       <c r="H7" t="n">
-        <v>9.994861602783203</v>
+        <v>6.121023654937744</v>
       </c>
       <c r="I7" t="n">
-        <v>8.725143432617188</v>
+        <v>0.8518595695495605</v>
       </c>
       <c r="J7" t="n">
-        <v>1.269718170166016</v>
+        <v>38.83932080492466</v>
       </c>
       <c r="K7" t="n">
-        <v>26.28323084864688</v>
+        <v>5582.651</v>
       </c>
       <c r="L7" t="n">
-        <v>4593.3965</v>
+        <v>0.9474873</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7391191</v>
+        <v>1.062292</v>
       </c>
       <c r="N7" t="n">
-        <v>0.21825801</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.73767143</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.6841579102432431</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.84130416095806</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4.5691</v>
+        <v>1.0626211</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>4.2982</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>HD 13825</t>
+        </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
+          <t>HIP 10505</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -1054,70 +963,55 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1173847139324624256</t>
+          <t>101489256866566528</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1173847139324624256</t>
+          <t>101489256866566528</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1173847139324624256</t>
+          <t>101489256866566528</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>223.0433895526391</v>
+        <v>37.43086040176554</v>
       </c>
       <c r="E8" t="n">
-        <v>9.098892591310703</v>
+        <v>23.13255193993497</v>
       </c>
       <c r="F8" t="n">
-        <v>10.12430380627632</v>
+        <v>10.5922269821167</v>
       </c>
       <c r="G8" t="n">
-        <v>9.811841011047363</v>
+        <v>11.31270599365234</v>
       </c>
       <c r="H8" t="n">
-        <v>10.35730361938477</v>
+        <v>9.771952629089355</v>
       </c>
       <c r="I8" t="n">
-        <v>9.119866371154785</v>
+        <v>1.540753364562988</v>
       </c>
       <c r="J8" t="n">
-        <v>1.23743724822998</v>
-      </c>
-      <c r="K8" t="n">
-        <v>20.09357736590265</v>
+        <v>22.01963065967985</v>
       </c>
       <c r="L8" t="n">
-        <v>4649.595</v>
+        <v>0.673276</v>
       </c>
       <c r="M8" t="n">
-        <v>0.75460005</v>
+        <v>0.13313842</v>
       </c>
       <c r="N8" t="n">
-        <v>0.25242245</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.7490895</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.7330591983772119</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.795211827359183</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4.5385</v>
-      </c>
-      <c r="S8" t="inlineStr">
+        <v>0.6957302</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -1126,70 +1020,51 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1157670986817726976</t>
+          <t>101612981989146752</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1157670986817726976</t>
+          <t>101612981989146752</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1157670986817726976</t>
+          <t>101612981989146752</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>222.555828074865</v>
+        <v>35.86150229768923</v>
       </c>
       <c r="E9" t="n">
-        <v>3.831923465009835</v>
+        <v>22.73471064102162</v>
       </c>
       <c r="F9" t="n">
-        <v>10.0160669137001</v>
+        <v>10.42956638336182</v>
       </c>
       <c r="G9" t="n">
-        <v>9.722125053405762</v>
+        <v>11.41024589538574</v>
       </c>
       <c r="H9" t="n">
-        <v>10.24830436706543</v>
+        <v>9.453178405761719</v>
       </c>
       <c r="I9" t="n">
-        <v>9.041496276855469</v>
+        <v>1.957067489624023</v>
       </c>
       <c r="J9" t="n">
-        <v>1.206808090209961</v>
-      </c>
-      <c r="K9" t="n">
-        <v>20.28000992927159</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4716.4263</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.7547015</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.26911595</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.77697027</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.7535732946570199</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.60902210061236</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4.552</v>
+        <v>36.90159886253844</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
+          <t>HIP 11152</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -1198,162 +1073,148 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1159605302648975104</t>
+          <t>102082409030066560</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1159605302648975104</t>
+          <t>102082409030066560</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1159605302648975104</t>
+          <t>102082409030066560</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>222.5845573398771</v>
+        <v>39.2528503972963</v>
       </c>
       <c r="E10" t="n">
-        <v>6.814635874752399</v>
+        <v>24.64715136282451</v>
       </c>
       <c r="F10" t="n">
-        <v>9.055453098478317</v>
+        <v>6.400851726531982</v>
       </c>
       <c r="G10" t="n">
-        <v>8.778704643249512</v>
+        <v>6.600356578826904</v>
       </c>
       <c r="H10" t="n">
-        <v>9.286910057067871</v>
+        <v>6.0542311668396</v>
       </c>
       <c r="I10" t="n">
-        <v>8.111459732055664</v>
+        <v>0.5461254119873047</v>
       </c>
       <c r="J10" t="n">
-        <v>1.175450325012207</v>
+        <v>22.26083969141624</v>
       </c>
       <c r="K10" t="n">
-        <v>32.19761766760166</v>
+        <v>6632.1787</v>
       </c>
       <c r="L10" t="n">
-        <v>4749.4453</v>
+        <v>1.3406727</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7875459</v>
+        <v>4.0950737</v>
       </c>
       <c r="N10" t="n">
-        <v>0.24646318</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.70079786</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.7195741969397109</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.288218929216095</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4.5558</v>
+        <v>1.5491496</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>4.267</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>HD 16246</t>
+        </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>HIP 12189</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>HD 130871</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>GJ 9497</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>72577</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>PM*</t>
+          <t>SB*</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>103649316178540416</t>
+          <t>102082477749475200</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>103649316178540416</t>
+          <t>102082477749475200</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>103649316178540416</t>
+          <t>102082477749475200</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>31.24631244191957</v>
+        <v>39.24129515303115</v>
       </c>
       <c r="E11" t="n">
-        <v>22.80074001456341</v>
+        <v>24.64800884963116</v>
       </c>
       <c r="F11" t="n">
-        <v>9.491657635612487</v>
+        <v>6.979340553283691</v>
       </c>
       <c r="G11" t="n">
-        <v>9.250104904174805</v>
+        <v>7.22448205947876</v>
       </c>
       <c r="H11" t="n">
-        <v>9.721427917480469</v>
+        <v>6.553666114807129</v>
       </c>
       <c r="I11" t="n">
-        <v>8.613742828369141</v>
+        <v>0.6708159446716309</v>
       </c>
       <c r="J11" t="n">
-        <v>1.107685089111328</v>
+        <v>22.51072487326856</v>
       </c>
       <c r="K11" t="n">
-        <v>21.63390688776342</v>
+        <v>6157.398</v>
       </c>
       <c r="L11" t="n">
-        <v>4885.2803</v>
+        <v>1.1666826</v>
       </c>
       <c r="M11" t="n">
-        <v>0.79679483</v>
+        <v>2.3622801</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3423774</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.7866156</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.8403655287538194</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.637038308540251</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4.5094</v>
+        <v>1.350614</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>4.1395</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>HD 16232</t>
+        </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>9714</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
+          <t>HIP 12184</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -1362,157 +1223,130 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1159502498311670144</t>
+          <t>102162639019033600</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1159502498311670144</t>
+          <t>102162639019033600</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1159502498311670144</t>
+          <t>102162639019033600</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>221.4363971455294</v>
+        <v>38.40513666109431</v>
       </c>
       <c r="E12" t="n">
-        <v>6.061377273099621</v>
+        <v>24.92413187711575</v>
       </c>
       <c r="F12" t="n">
-        <v>9.226201893939972</v>
+        <v>11.52930641174316</v>
       </c>
       <c r="G12" t="n">
-        <v>8.972812652587891</v>
+        <v>13.24186325073242</v>
       </c>
       <c r="H12" t="n">
-        <v>9.456518173217773</v>
+        <v>10.27346324920654</v>
       </c>
       <c r="I12" t="n">
-        <v>8.326896667480469</v>
+        <v>2.968400001525879</v>
       </c>
       <c r="J12" t="n">
-        <v>1.129621505737305</v>
+        <v>100.1465447418619</v>
       </c>
       <c r="K12" t="n">
-        <v>26.09714855960928</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4907.8716</v>
+        <v>3089.2524</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7657769</v>
+        <v>0.0055671716</v>
       </c>
       <c r="N12" t="n">
-        <v>0.30908722</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.7760755</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.7972353092363965</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.63828834415929</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4.5328</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>K</t>
+        <v>0.2605447</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>4.8588</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>GJ 102</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>HD 130027</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>PM*</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>115364234616059392</t>
+          <t>102648588798884736</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>115364234616059392</t>
+          <t>102648588798884736</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>115364234616059392</t>
+          <t>102648588798884736</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>44.71837163672802</v>
+        <v>36.36665063262664</v>
       </c>
       <c r="E13" t="n">
-        <v>26.77463304315022</v>
+        <v>24.67690441348204</v>
       </c>
       <c r="F13" t="n">
-        <v>8.183923616185188</v>
+        <v>11.29891395568848</v>
       </c>
       <c r="G13" t="n">
-        <v>7.974697589874268</v>
+        <v>12.45002841949463</v>
       </c>
       <c r="H13" t="n">
-        <v>8.412071228027344</v>
+        <v>10.23246669769287</v>
       </c>
       <c r="I13" t="n">
-        <v>7.369579792022705</v>
+        <v>2.217561721801758</v>
       </c>
       <c r="J13" t="n">
-        <v>1.042491436004639</v>
+        <v>28.20122195091457</v>
       </c>
       <c r="K13" t="n">
-        <v>34.50452236555922</v>
+        <v>3515.4365</v>
       </c>
       <c r="L13" t="n">
-        <v>5025.751</v>
+        <v>0.5711337</v>
       </c>
       <c r="M13" t="n">
-        <v>0.80132973</v>
+        <v>0.06155283</v>
       </c>
       <c r="N13" t="n">
-        <v>0.42816928</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.84524983</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.930746728962096</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.326954340741504</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4.4806</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>K</t>
+        <v>0.6377702</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>4.4556</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
-        <is>
-          <t>HD 18450</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>13891</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -1521,85 +1355,60 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>116037204451525376</t>
+          <t>103124230657005568</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>116037204451525376</t>
+          <t>103124230657005568</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>116037204451525376</t>
+          <t>103124230657005568</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43.91406593452299</v>
+        <v>36.23923930553835</v>
       </c>
       <c r="E14" t="n">
-        <v>26.87235600884521</v>
+        <v>25.55079182571451</v>
       </c>
       <c r="F14" t="n">
-        <v>7.566321189179421</v>
+        <v>11.84138107299805</v>
       </c>
       <c r="G14" t="n">
-        <v>7.345056533813477</v>
+        <v>13.20164680480957</v>
       </c>
       <c r="H14" t="n">
-        <v>7.795044422149658</v>
+        <v>10.68834400177002</v>
       </c>
       <c r="I14" t="n">
-        <v>6.729426383972168</v>
+        <v>2.513302803039551</v>
       </c>
       <c r="J14" t="n">
-        <v>1.06561803817749</v>
+        <v>31.7537095871211</v>
       </c>
       <c r="K14" t="n">
-        <v>44.43239202208633</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5059.663</v>
+        <v>3254.3608</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8100857</v>
+        <v>0.033687726</v>
       </c>
       <c r="N14" t="n">
-        <v>0.45153892</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.8505562</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.953565279024959</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.316503208655358</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4.4771</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>K</t>
+        <v>0.5775098</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>4.3267</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
-        <is>
-          <t>HD 18143</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>GJ 9105</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>13642</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -1608,85 +1417,60 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>114575472461716864</t>
+          <t>103173223348678144</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>114575472461716864</t>
+          <t>103173223348678144</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>114575472461716864</t>
+          <t>103173223348678144</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>41.56453074638041</v>
+        <v>37.53644811563576</v>
       </c>
       <c r="E15" t="n">
-        <v>25.64923805023599</v>
+        <v>25.62186800273489</v>
       </c>
       <c r="F15" t="n">
-        <v>7.856429513058663</v>
+        <v>10.41915035247803</v>
       </c>
       <c r="G15" t="n">
-        <v>7.667356491088867</v>
+        <v>11.22833251953125</v>
       </c>
       <c r="H15" t="n">
-        <v>8.083680152893066</v>
+        <v>9.544547080993652</v>
       </c>
       <c r="I15" t="n">
-        <v>7.077226161956787</v>
+        <v>1.683785438537598</v>
       </c>
       <c r="J15" t="n">
-        <v>1.006453990936279</v>
+        <v>25.93191665471603</v>
       </c>
       <c r="K15" t="n">
-        <v>39.6119946556793</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5109.824</v>
+        <v>4176.6665</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8755932</v>
+        <v>0.13152601</v>
       </c>
       <c r="N15" t="n">
-        <v>0.42180526</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.79860175</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.9184244916203961</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.719141433438844</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4.4907</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>G</t>
+        <v>0.7493356</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>4.6116</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>K</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
-        <is>
-          <t>HD 17190</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>GJ 112.0</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>12926</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -1695,237 +1479,200 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>114832620743735808</t>
+          <t>103363168277756928</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>114832620743735808</t>
+          <t>103363168277756928</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>114832620743735808</t>
+          <t>103363168277756928</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>42.03952436381632</v>
+        <v>36.19165862292867</v>
       </c>
       <c r="E16" t="n">
-        <v>27.06811175700175</v>
+        <v>25.97541126040853</v>
       </c>
       <c r="F16" t="n">
-        <v>7.567528844618797</v>
+        <v>10.77968502044678</v>
       </c>
       <c r="G16" t="n">
-        <v>7.379911422729492</v>
+        <v>11.83721160888672</v>
       </c>
       <c r="H16" t="n">
-        <v>7.794707775115967</v>
+        <v>9.759780883789062</v>
       </c>
       <c r="I16" t="n">
-        <v>6.791134834289551</v>
+        <v>2.077430725097656</v>
       </c>
       <c r="J16" t="n">
-        <v>1.003572940826416</v>
+        <v>35.76654175886286</v>
       </c>
       <c r="K16" t="n">
-        <v>43.57040806887107</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5111.457</v>
+        <v>3634.4255</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8099853</v>
+        <v>0.055629462</v>
       </c>
       <c r="N16" t="n">
-        <v>0.46308705</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.8678165</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.9622088545371641</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.239348448760549</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4.4809</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>G</t>
+        <v>0.6682395</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>4.5921</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>GJ 3156</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>HD 17382</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>GJ 113</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>13081</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>BY*</t>
+          <t>PM*</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1160184436039120128</t>
+          <t>103649316178540416</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1160184436039120128</t>
+          <t>103649316178540416</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1160184436039120128</t>
+          <t>103649316178540416</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>224.7308453021665</v>
+        <v>31.24631244191957</v>
       </c>
       <c r="E17" t="n">
-        <v>6.605280698192328</v>
+        <v>22.80074001456341</v>
       </c>
       <c r="F17" t="n">
-        <v>8.428445967001915</v>
+        <v>9.250104904174805</v>
       </c>
       <c r="G17" t="n">
-        <v>8.22670841217041</v>
+        <v>9.721427917480469</v>
       </c>
       <c r="H17" t="n">
-        <v>8.656667709350586</v>
+        <v>8.613742828369141</v>
       </c>
       <c r="I17" t="n">
-        <v>7.611197948455811</v>
+        <v>1.107685089111328</v>
       </c>
       <c r="J17" t="n">
-        <v>1.045469760894775</v>
+        <v>21.63390688776342</v>
       </c>
       <c r="K17" t="n">
-        <v>27.43125434572484</v>
+        <v>4885.2803</v>
       </c>
       <c r="L17" t="n">
-        <v>5165</v>
+        <v>0.79679483</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.3423774</v>
       </c>
       <c r="N17" t="n">
-        <v>0.766559</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.233352180635681</v>
+        <v>0.7866156</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>4.5094</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>HIP 9714</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>HD 132425</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>73314</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>**</t>
+          <t>PM*</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1161759314647344896</t>
+          <t>103942679624729088</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1161759314647344896</t>
+          <t>103942679624729088</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1161759314647344896</t>
+          <t>103942679624729088</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>224.2005278032022</v>
+        <v>29.80341512779783</v>
       </c>
       <c r="E18" t="n">
-        <v>8.600094938433756</v>
+        <v>23.23633994067851</v>
       </c>
       <c r="F18" t="n">
-        <v>8.422953605651855</v>
+        <v>9.431782722473145</v>
       </c>
       <c r="G18" t="n">
-        <v>8.422953605651855</v>
+        <v>9.994861602783203</v>
       </c>
       <c r="H18" t="n">
-        <v>8.830127716064453</v>
+        <v>8.725143432617188</v>
       </c>
       <c r="I18" t="n">
-        <v>7.846291542053223</v>
+        <v>1.269718170166016</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9838361740112305</v>
+        <v>26.28323084864688</v>
       </c>
       <c r="K18" t="n">
-        <v>26.82248477044975</v>
+        <v>4593.3965</v>
       </c>
       <c r="L18" t="n">
-        <v>5219.042</v>
+        <v>0.7391191</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9041954</v>
+        <v>0.21825801</v>
       </c>
       <c r="N18" t="n">
-        <v>0.45268345</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.79961824</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.9442079435825914</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.768537270580673</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4.5133</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>G</t>
+        <v>0.73767143</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>4.5691</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>K</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
-        <is>
-          <t>HD 132051</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>73138</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -1934,80 +1681,73 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>100380639907919872</t>
+          <t>104453918172129792</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>100380639907919872</t>
+          <t>104453918172129792</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>100380639907919872</t>
+          <t>104453918172129792</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>33.07455634342676</v>
+        <v>31.62604445873306</v>
       </c>
       <c r="E19" t="n">
-        <v>21.98240642703211</v>
+        <v>24.33333545859931</v>
       </c>
       <c r="F19" t="n">
-        <v>8.256831169128418</v>
+        <v>6.736007213592529</v>
       </c>
       <c r="G19" t="n">
-        <v>8.256831169128418</v>
+        <v>7.060049057006836</v>
       </c>
       <c r="H19" t="n">
-        <v>8.649417877197266</v>
+        <v>6.236560344696045</v>
       </c>
       <c r="I19" t="n">
-        <v>7.692890644073486</v>
+        <v>0.823488712310791</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9565272331237793</v>
+        <v>42.11414378930216</v>
       </c>
       <c r="K19" t="n">
-        <v>29.08669008667431</v>
+        <v>5650.416</v>
       </c>
       <c r="L19" t="n">
-        <v>5240.0024</v>
+        <v>0.9783435</v>
       </c>
       <c r="M19" t="n">
-        <v>0.87251496</v>
+        <v>0.847451</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4557252</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.8191135</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.9459825189454563</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.587598321001822</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4.5114</v>
+        <v>0.9522699</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>4.3887</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>HD 12846</t>
+        </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>HIP 9829</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
-        <is>
-          <t>HD 13483</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>10276</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -2016,80 +1756,56 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1160956465000504448</t>
+          <t>104716907609412352</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1160956465000504448</t>
+          <t>104716907609412352</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1160956465000504448</t>
+          <t>104716907609412352</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>224.544569911859</v>
+        <v>29.481705461334</v>
       </c>
       <c r="E20" t="n">
-        <v>6.905378758366146</v>
+        <v>23.59600408375664</v>
       </c>
       <c r="F20" t="n">
-        <v>7.955729484558105</v>
+        <v>4.703513622283936</v>
       </c>
       <c r="G20" t="n">
-        <v>7.955729484558105</v>
+        <v>4.85785961151123</v>
       </c>
       <c r="H20" t="n">
-        <v>8.343930244445801</v>
+        <v>4.451426029205322</v>
       </c>
       <c r="I20" t="n">
-        <v>7.398594856262207</v>
+        <v>0.4064335823059082</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9453353881835938</v>
-      </c>
-      <c r="K20" t="n">
-        <v>28.81553758216229</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5348.5693</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8611668</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.5956098</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.8974487</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.073240811772464</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.191402151403892</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4.4572</v>
+        <v>24.7747632394132</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>HD 11973</t>
+        </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>HIP 9153</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
-        <is>
-          <t>HD 132307</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>73245</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -2098,85 +1814,68 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>115311458058061440</t>
+          <t>104717285566534016</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>115311458058061440</t>
+          <t>104717285566534016</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>115311458058061440</t>
+          <t>104717285566534016</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>45.60960164514362</v>
+        <v>29.49004522076913</v>
       </c>
       <c r="E21" t="n">
-        <v>26.60849032781426</v>
+        <v>23.60302299061022</v>
       </c>
       <c r="F21" t="n">
-        <v>6.455846309661865</v>
+        <v>7.190488338470459</v>
       </c>
       <c r="G21" t="n">
-        <v>6.455846309661865</v>
+        <v>7.465395450592041</v>
       </c>
       <c r="H21" t="n">
-        <v>6.797202587127686</v>
+        <v>6.741426944732666</v>
       </c>
       <c r="I21" t="n">
-        <v>5.939840316772461</v>
+        <v>0.723968505859375</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8573622703552246</v>
+        <v>24.82722252010718</v>
       </c>
       <c r="K21" t="n">
-        <v>47.18100005914773</v>
+        <v>5961.072</v>
       </c>
       <c r="L21" t="n">
-        <v>5435.6226</v>
+        <v>1.1039627</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9718934</v>
+        <v>1.574574</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8559386</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.9588439</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.278720766141783</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.102490621683708</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4.3607</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>G</t>
+        <v>1.1331664</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>4.3114</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>HD 11973</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
-        <is>
-          <t>HD 18803</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>GJ 120.2</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>14150</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -2185,167 +1884,125 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1161797900633510144</t>
+          <t>104752950974981760</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1161797900633510144</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1161797900633510144</t>
+          <t>104752950974981760</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>225.1453271060597</v>
+        <v>30.03659933157834</v>
       </c>
       <c r="E22" t="n">
-        <v>8.598757150543472</v>
+        <v>23.83558930058416</v>
       </c>
       <c r="F22" t="n">
-        <v>7.085587501525879</v>
+        <v>9.196018218994141</v>
       </c>
       <c r="G22" t="n">
-        <v>7.085587501525879</v>
+        <v>9.555974006652832</v>
       </c>
       <c r="H22" t="n">
-        <v>7.427216053009033</v>
+        <v>8.710067749023438</v>
       </c>
       <c r="I22" t="n">
-        <v>6.562463283538818</v>
+        <v>0.8459062576293945</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8647527694702148</v>
+        <v>22.51668844265761</v>
       </c>
       <c r="K22" t="n">
-        <v>26.2550638459063</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5473.4116</v>
+        <v>5659.1235</v>
       </c>
       <c r="M22" t="n">
-        <v>0.93789744</v>
+        <v>0.31043786</v>
       </c>
       <c r="N22" t="n">
-        <v>1.5872085</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.3452358</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.736666409667178</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.3852654830425525</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4.1995</v>
-      </c>
-      <c r="S22" t="inlineStr">
+        <v>0.5796177</v>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>HD 132756</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>73449</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>SB*</t>
+          <t>PM*</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1174143182830505984</t>
+          <t>105332908999068032</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1174143182830505984</t>
+          <t>105332908999068032</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1174143182830505984</t>
+          <t>105332908999068032</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>222.7586685366781</v>
+        <v>31.14233583808426</v>
       </c>
       <c r="E23" t="n">
-        <v>9.72392000919409</v>
+        <v>25.41353914088439</v>
       </c>
       <c r="F23" t="n">
-        <v>7.335746288299561</v>
+        <v>7.262335777282715</v>
       </c>
       <c r="G23" t="n">
-        <v>7.335746288299561</v>
+        <v>7.608210563659668</v>
       </c>
       <c r="H23" t="n">
-        <v>7.692070007324219</v>
+        <v>6.749390602111816</v>
       </c>
       <c r="I23" t="n">
-        <v>6.804160118103027</v>
+        <v>0.8588199615478516</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8879098892211914</v>
+        <v>26.46141230655851</v>
       </c>
       <c r="K23" t="n">
-        <v>33.29165665954585</v>
+        <v>5551.7886</v>
       </c>
       <c r="L23" t="n">
-        <v>5496.29</v>
+        <v>0.9306214</v>
       </c>
       <c r="M23" t="n">
-        <v>0.88464314</v>
+        <v>1.2820382</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7743672</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.97053236</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.211083370311677</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.9676940099921681</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4.4156</v>
+        <v>1.1847085</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>4.3095</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>HD 12661</t>
+        </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>HIP 9683</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
-        <is>
-          <t>HD 131023</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>GJ 3868</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>72634</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -2354,241 +2011,155 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11210418694164864</t>
+          <t>105599987244856064</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>11210418694164864</t>
+          <t>105599987244856064</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50.15543847873994</v>
+        <v>30.91441935563023</v>
       </c>
       <c r="E24" t="n">
-        <v>9.033282205376679</v>
+        <v>25.93590188115452</v>
       </c>
       <c r="F24" t="n">
-        <v>8.272162437438965</v>
-      </c>
-      <c r="G24" t="n">
-        <v>8.272162437438965</v>
-      </c>
-      <c r="H24" t="n">
-        <v>8.657546997070312</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7.758671760559082</v>
+        <v>7.645853996276855</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8988752365112305</v>
-      </c>
-      <c r="K24" t="n">
-        <v>22.53880836471462</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5516.85</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9386095</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.2766182</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.2789543</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.552756722619518</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.4486625974914062</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>G</t>
+        <v>22.80912762662074</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>HD 12558</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>HD 20727</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>GJ 9114</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>15572</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>SB*</t>
+          <t>PM*</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1154336202410495488</t>
+          <t>10584899657116672</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1154336202410495488</t>
+          <t>10584899657116672</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1154336202410495488</t>
+          <t>10584899657116672</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>222.9724864421921</v>
+        <v>49.3606888568276</v>
       </c>
       <c r="E25" t="n">
-        <v>2.014983865209197</v>
+        <v>7.655782956901497</v>
       </c>
       <c r="F25" t="n">
-        <v>8.182125091552734</v>
+        <v>7.265664577484131</v>
       </c>
       <c r="G25" t="n">
-        <v>8.182125091552734</v>
+        <v>7.539642333984375</v>
       </c>
       <c r="H25" t="n">
-        <v>8.525748252868652</v>
+        <v>6.8254075050354</v>
       </c>
       <c r="I25" t="n">
-        <v>7.663158416748047</v>
+        <v>0.7142348289489746</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8625898361206055</v>
+        <v>21.2722812752925</v>
       </c>
       <c r="K25" t="n">
-        <v>25.36810775575994</v>
+        <v>6009.3755</v>
       </c>
       <c r="L25" t="n">
-        <v>5521.1274</v>
+        <v>1.1031824</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9642712</v>
+        <v>1.9886048</v>
       </c>
       <c r="N25" t="n">
-        <v>0.62004685</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.86066896</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.081819046462467</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.512483949252921</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4.4682</v>
+        <v>1.3009827</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>4.2639</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>HD 20430</t>
+        </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>HIP 15304</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>HD 131179</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>72703</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>PM*</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>106774952858617088</t>
+          <t>105850121845012608</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>106774952858617088</t>
+          <t>105850121845012608</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>106774952858617088</t>
+          <t>105850121845012608</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>33.86534252529597</v>
+        <v>33.95246186130055</v>
       </c>
       <c r="E26" t="n">
-        <v>27.3566511004514</v>
+        <v>24.98021719582606</v>
       </c>
       <c r="F26" t="n">
-        <v>7.950503826141357</v>
+        <v>11.85060119628906</v>
       </c>
       <c r="G26" t="n">
-        <v>7.950503826141357</v>
+        <v>12.66233444213867</v>
       </c>
       <c r="H26" t="n">
-        <v>8.301915168762207</v>
+        <v>10.57326602935791</v>
       </c>
       <c r="I26" t="n">
-        <v>7.42665433883667</v>
+        <v>2.089068412780762</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8752608299255371</v>
-      </c>
-      <c r="K26" t="n">
-        <v>25.98818169694588</v>
-      </c>
-      <c r="L26" t="n">
-        <v>5539.9272</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.9698932</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.72575426</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.905529</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.168863218102437</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.306221489615553</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4.5011</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>G</t>
+        <v>20.08193212299896</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
-        <is>
-          <t>HD 13836</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>10510</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -2597,80 +2168,73 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>105332908999068032</t>
+          <t>106051542927008128</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>105332908999068032</t>
+          <t>106051542927008128</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>105332908999068032</t>
+          <t>106051542927008128</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>31.14233583808426</v>
+        <v>33.94274668694491</v>
       </c>
       <c r="E27" t="n">
-        <v>25.41353914088439</v>
+        <v>25.78264869991974</v>
       </c>
       <c r="F27" t="n">
-        <v>7.262335777282715</v>
+        <v>5.679014682769775</v>
       </c>
       <c r="G27" t="n">
-        <v>7.262335777282715</v>
+        <v>5.901092052459717</v>
       </c>
       <c r="H27" t="n">
-        <v>7.608210563659668</v>
+        <v>5.306320190429688</v>
       </c>
       <c r="I27" t="n">
-        <v>6.749390602111816</v>
+        <v>0.5947718620300293</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8588199615478516</v>
+        <v>24.35200089319221</v>
       </c>
       <c r="K27" t="n">
-        <v>26.46141230655851</v>
+        <v>6440.388</v>
       </c>
       <c r="L27" t="n">
-        <v>5551.7886</v>
+        <v>1.4699835</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9306214</v>
+        <v>6.4357414</v>
       </c>
       <c r="N27" t="n">
-        <v>1.2820382</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.1847085</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.552236050811783</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.5596783685001662</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4.3095</v>
+        <v>1.934822</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3.9546</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>HD 13871</t>
+        </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>HIP 10540</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
-        <is>
-          <t>HD 12661</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>9683</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -2679,80 +2243,73 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>101309452355657216</t>
+          <t>10608573516849536</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>101309452355657216</t>
+          <t>10608573516849536</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>101309452355657216</t>
+          <t>10608573516849536</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33.85397854233757</v>
+        <v>49.38734080972668</v>
       </c>
       <c r="E28" t="n">
-        <v>24.27046918211229</v>
+        <v>7.690126225598939</v>
       </c>
       <c r="F28" t="n">
-        <v>6.637241840362549</v>
+        <v>7.616955280303955</v>
       </c>
       <c r="G28" t="n">
-        <v>6.637241840362549</v>
+        <v>7.917330265045166</v>
       </c>
       <c r="H28" t="n">
-        <v>6.972883224487305</v>
+        <v>7.149929046630859</v>
       </c>
       <c r="I28" t="n">
-        <v>6.121023654937744</v>
+        <v>0.7674012184143066</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8518595695495605</v>
+        <v>21.22613680776007</v>
       </c>
       <c r="K28" t="n">
-        <v>38.83932080492466</v>
+        <v>5830.9644</v>
       </c>
       <c r="L28" t="n">
-        <v>5582.651</v>
+        <v>1.009978</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9474873</v>
+        <v>1.4471805</v>
       </c>
       <c r="N28" t="n">
-        <v>1.062292</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.0626211</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.40990297687963</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.7896562765423027</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4.2982</v>
+        <v>1.1787696</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>4.2716</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>HD 20439</t>
+        </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>HIP 15310</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
-        <is>
-          <t>HD 13825</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>10505</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -2761,75 +2318,73 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1167718049194619136</t>
+          <t>106774952858617088</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1167718049194619136</t>
+          <t>106774952858617088</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1167718049194619136</t>
+          <t>106774952858617088</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>226.8858250837715</v>
+        <v>33.86534252529597</v>
       </c>
       <c r="E29" t="n">
-        <v>9.225199663187755</v>
+        <v>27.3566511004514</v>
       </c>
       <c r="F29" t="n">
-        <v>7.378372669219971</v>
+        <v>7.950503826141357</v>
       </c>
       <c r="G29" t="n">
-        <v>7.378372669219971</v>
+        <v>8.301915168762207</v>
       </c>
       <c r="H29" t="n">
-        <v>7.709477424621582</v>
+        <v>7.42665433883667</v>
       </c>
       <c r="I29" t="n">
-        <v>6.867691993713379</v>
+        <v>0.8752608299255371</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8417854309082031</v>
+        <v>25.98818169694588</v>
       </c>
       <c r="K29" t="n">
-        <v>30.40685589977081</v>
+        <v>5539.9272</v>
       </c>
       <c r="L29" t="n">
-        <v>5597.0737</v>
+        <v>0.9698932</v>
       </c>
       <c r="M29" t="n">
-        <v>0.9192066</v>
+        <v>0.72575426</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8929874</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.0049579</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.291371311717843</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.9056690536884987</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4.3662</v>
+        <v>0.905529</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>4.5011</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>HD 13836</t>
+        </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>HIP 10510</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
-        <is>
-          <t>HD 134066</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -2838,80 +2393,60 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1170797781264303616</t>
+          <t>107175480033033472</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1170797781264303616</t>
+          <t>107175480033033472</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1170797781264303616</t>
+          <t>107175480033033472</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>230.7157122592357</v>
+        <v>32.79769624248011</v>
       </c>
       <c r="E30" t="n">
-        <v>13.36630798511878</v>
+        <v>27.1259555422353</v>
       </c>
       <c r="F30" t="n">
-        <v>7.757489204406738</v>
+        <v>11.94848442077637</v>
       </c>
       <c r="G30" t="n">
-        <v>7.757489204406738</v>
+        <v>13.21004104614258</v>
       </c>
       <c r="H30" t="n">
-        <v>8.074392318725586</v>
+        <v>10.83412551879883</v>
       </c>
       <c r="I30" t="n">
-        <v>7.264061450958252</v>
+        <v>2.37591552734375</v>
       </c>
       <c r="J30" t="n">
-        <v>0.810330867767334</v>
+        <v>32.60982541292297</v>
       </c>
       <c r="K30" t="n">
-        <v>20.83019518506963</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5638.635</v>
+        <v>3226.691</v>
       </c>
       <c r="M30" t="n">
-        <v>0.96878815</v>
+        <v>0.026877686</v>
       </c>
       <c r="N30" t="n">
-        <v>1.3450086</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.1686629</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.580259908073249</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.6069613627292476</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4.2818</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>F</t>
+        <v>0.5244621</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>4.1476</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
-        <is>
-          <t>HD 136925</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>75281</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -2920,636 +2455,556 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>104453918172129792</t>
+          <t>107774198474602368</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>104453918172129792</t>
+          <t>107774198474602368</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>104453918172129792</t>
+          <t>107774198474602368</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>31.62604445873306</v>
+        <v>34.35350593959792</v>
       </c>
       <c r="E31" t="n">
-        <v>24.33333545859931</v>
+        <v>28.74146464868399</v>
       </c>
       <c r="F31" t="n">
-        <v>6.736007213592529</v>
+        <v>7.622567176818848</v>
       </c>
       <c r="G31" t="n">
-        <v>6.736007213592529</v>
+        <v>7.934013843536377</v>
       </c>
       <c r="H31" t="n">
-        <v>7.060049057006836</v>
+        <v>7.140437602996826</v>
       </c>
       <c r="I31" t="n">
-        <v>6.236560344696045</v>
+        <v>0.7935762405395508</v>
       </c>
       <c r="J31" t="n">
-        <v>0.823488712310791</v>
+        <v>25.23063188946105</v>
       </c>
       <c r="K31" t="n">
-        <v>42.11414378930216</v>
+        <v>5725.089</v>
       </c>
       <c r="L31" t="n">
-        <v>5650.416</v>
+        <v>0.96736956</v>
       </c>
       <c r="M31" t="n">
-        <v>0.9783435</v>
+        <v>1.047259</v>
       </c>
       <c r="N31" t="n">
-        <v>0.847451</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.9522699</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.25333170722401</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.132951171290001</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4.3887</v>
+        <v>1.0402242</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>4.3811</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>HD 14082</t>
+        </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>HIP 10679</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>HD 12846</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>9829</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>PM*</t>
+          <t>BY*</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1166216253750406144</t>
+          <t>107774202769886848</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1166216253750406144</t>
+          <t>107774202769886848</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1166216253750406144</t>
+          <t>107774202769886848</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>233.1818613743089</v>
+        <v>34.35580267727129</v>
       </c>
       <c r="E32" t="n">
-        <v>10.96900411979796</v>
+        <v>28.7447106416723</v>
       </c>
       <c r="F32" t="n">
-        <v>7.072253704071045</v>
+        <v>6.90409517288208</v>
       </c>
       <c r="G32" t="n">
-        <v>7.072253704071045</v>
+        <v>7.157693386077881</v>
       </c>
       <c r="H32" t="n">
-        <v>7.394053936004639</v>
+        <v>6.487691402435303</v>
       </c>
       <c r="I32" t="n">
-        <v>6.575738906860352</v>
+        <v>0.6700019836425781</v>
       </c>
       <c r="J32" t="n">
-        <v>0.8183150291442871</v>
+        <v>25.27757747436875</v>
       </c>
       <c r="K32" t="n">
-        <v>33.13733759982472</v>
+        <v>6154.958</v>
       </c>
       <c r="L32" t="n">
-        <v>5656.0493</v>
+        <v>1.1427937</v>
       </c>
       <c r="M32" t="n">
-        <v>0.98167807</v>
+        <v>2.009556</v>
       </c>
       <c r="N32" t="n">
-        <v>0.98888296</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.0067558</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.353350990244281</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.9620478389936976</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4.3399</v>
+        <v>1.2466539</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>4.2039</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>HD 14082</t>
+        </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>HIP 10680</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>HD 138573</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>76114</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>PM*</t>
+          <t>BY*</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>109931856900594432</t>
+          <t>108421608959951488</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>109931856900594432</t>
+          <t>108421608959951488</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>109931856900594432</t>
+          <t>108421608959951488</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>45.86992813436105</v>
+        <v>44.52286680706736</v>
       </c>
       <c r="E33" t="n">
-        <v>23.06147511658081</v>
+        <v>20.66859347955031</v>
       </c>
       <c r="F33" t="n">
-        <v>6.90791654586792</v>
+        <v>5.690481662750244</v>
       </c>
       <c r="G33" t="n">
-        <v>6.90791654586792</v>
+        <v>5.900089740753174</v>
       </c>
       <c r="H33" t="n">
-        <v>7.209968566894531</v>
+        <v>5.33803653717041</v>
       </c>
       <c r="I33" t="n">
-        <v>6.413996696472168</v>
+        <v>0.5620532035827637</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7959718704223633</v>
-      </c>
-      <c r="K33" t="n">
-        <v>25.50493573848693</v>
+        <v>30.61534281025148</v>
       </c>
       <c r="L33" t="n">
-        <v>5656.717</v>
+        <v>1.3591957</v>
       </c>
       <c r="M33" t="n">
-        <v>0.99191564</v>
+        <v>4.154151</v>
       </c>
       <c r="N33" t="n">
-        <v>2.0046675</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.4740765</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.926810221045249</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.3096810780093248</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3.8994</v>
+        <v>1.5118886</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>HD 18404</t>
+        </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>HIP 13834</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>HD 18940</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>14230</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>**</t>
+          <t>PM*</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1167718049194619264</t>
+          <t>109051246870008448</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1167718049194619264</t>
+          <t>109051246870008448</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1167718049194619264</t>
+          <t>109051246870008448</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>226.8863958344199</v>
+        <v>45.80720680003026</v>
       </c>
       <c r="E34" t="n">
-        <v>9.226136166488667</v>
+        <v>22.37000259699031</v>
       </c>
       <c r="F34" t="n">
-        <v>7.188706398010254</v>
+        <v>10.41267871856689</v>
       </c>
       <c r="G34" t="n">
-        <v>7.188706398010254</v>
+        <v>11.07540416717529</v>
       </c>
       <c r="H34" t="n">
-        <v>7.506394386291504</v>
+        <v>9.627869606018066</v>
       </c>
       <c r="I34" t="n">
-        <v>6.699463844299316</v>
+        <v>1.447534561157227</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8069305419921875</v>
+        <v>20.99137361127316</v>
       </c>
       <c r="K34" t="n">
-        <v>30.42952416106248</v>
+        <v>4398.9106</v>
       </c>
       <c r="L34" t="n">
-        <v>5681.8643</v>
+        <v>0.69312495</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9468841</v>
+        <v>0.1505968</v>
       </c>
       <c r="N34" t="n">
-        <v>1.0567073</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.0608621</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.396477229717196</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.7930855210950009</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4.323</v>
+        <v>0.6682101</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>4.601</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>HIP 14211</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>HD 134066</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>PM*</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1168984617870183808</t>
+          <t>109628013733250304</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>109628013733250304</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1168984617870183808</t>
+          <t>109628013733250304</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>229.6742963855598</v>
+        <v>42.97593728423431</v>
       </c>
       <c r="E35" t="n">
-        <v>10.42768384150645</v>
+        <v>22.45782391608699</v>
       </c>
       <c r="F35" t="n">
-        <v>7.020629405975342</v>
+        <v>11.89314842224121</v>
       </c>
       <c r="G35" t="n">
-        <v>7.020629405975342</v>
+        <v>13.48761177062988</v>
       </c>
       <c r="H35" t="n">
-        <v>7.260996341705322</v>
+        <v>10.66360282897949</v>
       </c>
       <c r="I35" t="n">
-        <v>6.612955093383789</v>
+        <v>2.824008941650391</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6480412483215332</v>
+        <v>37.01041905083387</v>
       </c>
       <c r="K35" t="n">
-        <v>20.73602266401269</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5700</v>
+        <v>3000.6265</v>
       </c>
       <c r="M35" t="n">
-        <v>1.2094237</v>
+        <v>0.029038299</v>
       </c>
       <c r="N35" t="n">
-        <v>2.6423757</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.3589283</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.205493068284917</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.4819354196548625</v>
+        <v>0.63046914</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>3.8571</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>HD 136160</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>74930</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>PM*</t>
+          <t>Or*</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>100254161710940928</t>
+          <t>109931856900594432</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>100254161710940928</t>
+          <t>109931856900594432</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>100254161710940928</t>
+          <t>109931856900594432</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>32.84775594570956</v>
+        <v>45.86992813436105</v>
       </c>
       <c r="E36" t="n">
-        <v>21.37728648531765</v>
+        <v>23.06147511658081</v>
       </c>
       <c r="F36" t="n">
-        <v>7.171291828155518</v>
+        <v>6.90791654586792</v>
       </c>
       <c r="G36" t="n">
-        <v>7.171291828155518</v>
+        <v>7.209968566894531</v>
       </c>
       <c r="H36" t="n">
-        <v>7.498966693878174</v>
+        <v>6.413996696472168</v>
       </c>
       <c r="I36" t="n">
-        <v>6.667288780212402</v>
+        <v>0.7959718704223633</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8316779136657715</v>
+        <v>25.50493573848693</v>
       </c>
       <c r="K36" t="n">
-        <v>31.77494755452081</v>
+        <v>5656.717</v>
       </c>
       <c r="L36" t="n">
-        <v>5706.2305</v>
+        <v>0.99191564</v>
       </c>
       <c r="M36" t="n">
-        <v>0.9722631</v>
+        <v>2.0046675</v>
       </c>
       <c r="N36" t="n">
-        <v>0.9929156</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.0148537</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.351376841060585</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.930193895614431</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4.4892</v>
+        <v>1.4740765</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>3.8994</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>HD 18940</t>
+        </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>HIP 14230</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>HD 13382</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>10218</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>BY*</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>107774198474602368</t>
+          <t>11037726649058432</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>107774198474602368</t>
+          <t>11037726649058432</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>107774198474602368</t>
+          <t>11037726649058432</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>34.35350593959792</v>
+        <v>50.1226633061456</v>
       </c>
       <c r="E37" t="n">
-        <v>28.74146464868399</v>
+        <v>8.454477509803146</v>
       </c>
       <c r="F37" t="n">
-        <v>7.622567176818848</v>
+        <v>9.212734222412109</v>
       </c>
       <c r="G37" t="n">
-        <v>7.622567176818848</v>
+        <v>9.833420753479004</v>
       </c>
       <c r="H37" t="n">
-        <v>7.934013843536377</v>
+        <v>8.463774681091309</v>
       </c>
       <c r="I37" t="n">
-        <v>7.140437602996826</v>
+        <v>1.369646072387695</v>
       </c>
       <c r="J37" t="n">
-        <v>0.7935762405395508</v>
+        <v>31.6031596633021</v>
       </c>
       <c r="K37" t="n">
-        <v>25.23063188946105</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5725.089</v>
+        <v>4518.423</v>
       </c>
       <c r="M37" t="n">
-        <v>0.96736956</v>
+        <v>0.20035738</v>
       </c>
       <c r="N37" t="n">
-        <v>1.047259</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.0402242</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.386049050261436</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.8594320753310775</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4.3811</v>
+        <v>0.77188337</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>4.6014</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>HIP 15563</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>HD 14082</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>10679</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>BY*</t>
+          <t>PM*</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10608573516849536</t>
+          <t>111379432679196672</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10608573516849536</t>
+          <t>111379432679196672</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>10608573516849536</t>
+          <t>111379432679196672</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>49.38734080972668</v>
+        <v>49.4423591748814</v>
       </c>
       <c r="E38" t="n">
-        <v>7.690126225598939</v>
+        <v>25.25015392509532</v>
       </c>
       <c r="F38" t="n">
-        <v>7.616955280303955</v>
+        <v>10.90190887451172</v>
       </c>
       <c r="G38" t="n">
-        <v>7.616955280303955</v>
+        <v>12.0243034362793</v>
       </c>
       <c r="H38" t="n">
-        <v>7.917330265045166</v>
+        <v>9.842850685119629</v>
       </c>
       <c r="I38" t="n">
-        <v>7.149929046630859</v>
+        <v>2.181452751159668</v>
       </c>
       <c r="J38" t="n">
-        <v>0.7674012184143066</v>
+        <v>46.06079767926949</v>
       </c>
       <c r="K38" t="n">
-        <v>21.22613680776007</v>
-      </c>
-      <c r="L38" t="n">
-        <v>5830.9644</v>
+        <v>3577.252</v>
       </c>
       <c r="M38" t="n">
-        <v>1.009978</v>
+        <v>0.03053213</v>
       </c>
       <c r="N38" t="n">
-        <v>1.4471805</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.1787696</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.617481390022182</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.6166306853291024</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4.2716</v>
+        <v>0.45499608</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>4.7973</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>GJ 3215</t>
+        </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>HIP 15332</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
-        <is>
-          <t>HD 20439</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>15310</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -3558,77 +3013,70 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1174513645233715584</t>
+          <t>11210418694164864</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1174513645237833984</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>1174513645233715584</t>
+          <t>11210418694164864</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>221.5652678486585</v>
+        <v>50.15543847873994</v>
       </c>
       <c r="E39" t="n">
-        <v>9.645560859432685</v>
+        <v>9.033282205376679</v>
       </c>
       <c r="F39" t="n">
-        <v>7.594826698303223</v>
+        <v>8.272162437438965</v>
       </c>
       <c r="G39" t="n">
-        <v>7.594826698303223</v>
+        <v>8.657546997070312</v>
       </c>
       <c r="H39" t="n">
-        <v>7.791135787963867</v>
+        <v>7.758671760559082</v>
       </c>
       <c r="I39" t="n">
-        <v>6.950729846954346</v>
+        <v>0.8988752365112305</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8404059410095215</v>
+        <v>22.53880836471462</v>
       </c>
       <c r="K39" t="n">
-        <v>22.86171618639112</v>
+        <v>5516.85</v>
       </c>
       <c r="L39" t="n">
-        <v>5844.399</v>
+        <v>0.9386095</v>
       </c>
       <c r="M39" t="n">
-        <v>0.94155294</v>
+        <v>1.2766182</v>
       </c>
       <c r="N39" t="n">
-        <v>1.3257118</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.2001735</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.546687154711134</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.5446439001615057</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4.2656</v>
+        <v>1.2789543</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>HD 20727</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>GJ 9114</t>
+        </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>HIP 15572</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>HD 130145</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>PM*</t>
+          <t>SB*</t>
         </is>
       </c>
     </row>
@@ -3653,54 +3101,42 @@
         <v>7.904065132141113</v>
       </c>
       <c r="G40" t="n">
-        <v>7.904065132141113</v>
+        <v>8.160446166992188</v>
       </c>
       <c r="H40" t="n">
-        <v>8.160446166992188</v>
+        <v>7.470908164978027</v>
       </c>
       <c r="I40" t="n">
-        <v>7.470908164978027</v>
+        <v>0.6895380020141602</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6895380020141602</v>
-      </c>
-      <c r="K40" t="n">
         <v>25.87074353834864</v>
       </c>
       <c r="L40" t="n">
-        <v>5915.6171875</v>
+        <v>0.96868056</v>
       </c>
       <c r="M40" t="n">
-        <v>0.96868056</v>
+        <v>0.9842065</v>
       </c>
       <c r="N40" t="n">
-        <v>0.9842065</v>
-      </c>
-      <c r="O40" t="n">
         <v>1.7304926</v>
       </c>
-      <c r="P40" t="n">
-        <v>1.326209553702472</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.1869267024500554</v>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>HD 19445</t>
+        </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>HIP 14594</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
-        <is>
-          <t>HD 19445</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>14594</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
         <is>
           <t>Pe*</t>
         </is>
@@ -3709,75 +3145,70 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>104717285566534016</t>
+          <t>114207651462714880</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>104717285566534016</t>
+          <t>114207651462714880</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>104717285566534016</t>
+          <t>114207651462714880</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>29.49004522076913</v>
+        <v>41.06888178038034</v>
       </c>
       <c r="E41" t="n">
-        <v>23.60302299061022</v>
+        <v>25.52175109435131</v>
       </c>
       <c r="F41" t="n">
-        <v>7.190488338470459</v>
+        <v>9.467293739318848</v>
       </c>
       <c r="G41" t="n">
-        <v>7.190488338470459</v>
+        <v>10.81653118133545</v>
       </c>
       <c r="H41" t="n">
-        <v>7.465395450592041</v>
+        <v>8.316322326660156</v>
       </c>
       <c r="I41" t="n">
-        <v>6.741426944732666</v>
+        <v>2.500208854675293</v>
       </c>
       <c r="J41" t="n">
-        <v>0.723968505859375</v>
+        <v>130.1956340544322</v>
       </c>
       <c r="K41" t="n">
-        <v>24.82722252010718</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5961.072</v>
+        <v>3350.8286</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1039627</v>
+        <v>0.01789197</v>
       </c>
       <c r="N41" t="n">
-        <v>1.574574</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.1331664</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.67230637760673</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.7587056779255392</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4.3114</v>
+        <v>0.44078022</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>4.811</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>GJ 109</t>
+        </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>HIP 12781</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
-        <is>
-          <t>HD 11973</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -3786,80 +3217,78 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1165262633571848064</t>
+          <t>114575472461716864</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1165262633571848064</t>
+          <t>114575472461716864</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1165262633571848064</t>
+          <t>114575472461716864</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>234.4973112096774</v>
+        <v>41.56453074638041</v>
       </c>
       <c r="E42" t="n">
-        <v>10.23828292217312</v>
+        <v>25.64923805023599</v>
       </c>
       <c r="F42" t="n">
-        <v>6.956505298614502</v>
+        <v>7.667356491088867</v>
       </c>
       <c r="G42" t="n">
-        <v>6.956505298614502</v>
+        <v>8.083680152893066</v>
       </c>
       <c r="H42" t="n">
-        <v>7.208679676055908</v>
+        <v>7.077226161956787</v>
       </c>
       <c r="I42" t="n">
-        <v>6.499315738677979</v>
+        <v>1.006453990936279</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7093639373779297</v>
+        <v>39.6119946556793</v>
       </c>
       <c r="K42" t="n">
-        <v>21.13066511679369</v>
+        <v>5109.824</v>
       </c>
       <c r="L42" t="n">
-        <v>5961.5234</v>
+        <v>0.8755932</v>
       </c>
       <c r="M42" t="n">
-        <v>1.1046791</v>
+        <v>0.42180526</v>
       </c>
       <c r="N42" t="n">
-        <v>2.749848</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.572598</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2.209914364789368</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.2840422737027294</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3.9514</v>
+        <v>0.79860175</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>4.4907</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>HD 17190</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>GJ 112.0</t>
+        </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>HIP 12926</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
-        <is>
-          <t>HD 139457</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>76543</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -3868,239 +3297,196 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1157737335472646016</t>
+          <t>114832620743735808</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1157737335472646016</t>
+          <t>114832620743735808</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1157737335472646016</t>
+          <t>114832620743735808</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>221.5681869463663</v>
+        <v>42.03952436381632</v>
       </c>
       <c r="E43" t="n">
-        <v>3.503804070595691</v>
+        <v>27.06811175700175</v>
       </c>
       <c r="F43" t="n">
-        <v>7.256193161010742</v>
+        <v>7.379911422729492</v>
       </c>
       <c r="G43" t="n">
-        <v>7.256193161010742</v>
+        <v>7.794707775115967</v>
       </c>
       <c r="H43" t="n">
-        <v>7.526236534118652</v>
+        <v>6.791134834289551</v>
       </c>
       <c r="I43" t="n">
-        <v>6.816674709320068</v>
+        <v>1.003572940826416</v>
       </c>
       <c r="J43" t="n">
-        <v>0.709561824798584</v>
+        <v>43.57040806887107</v>
       </c>
       <c r="K43" t="n">
-        <v>24.50230155502727</v>
+        <v>5111.457</v>
       </c>
       <c r="L43" t="n">
-        <v>5999.4307</v>
+        <v>0.8099853</v>
       </c>
       <c r="M43" t="n">
-        <v>1.1048813</v>
+        <v>0.46308705</v>
       </c>
       <c r="N43" t="n">
-        <v>1.5146358</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.1156372</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.63594835359867</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.7956950606940093</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4.3223</v>
+        <v>0.8678165</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>4.4809</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>HD 17382</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>GJ 113</t>
+        </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>HIP 13081</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>HD 130125</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>72223</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>PM*</t>
+          <t>BY*</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>10584899657116672</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>10584899657116672</t>
+          <t>11530342218200448</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10584899657116672</t>
+          <t>11530342218200448</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>49.3606888568276</v>
+        <v>54.00146795018399</v>
       </c>
       <c r="E44" t="n">
-        <v>7.655782956901497</v>
+        <v>8.760354592121404</v>
       </c>
       <c r="F44" t="n">
-        <v>7.265664577484131</v>
+        <v>11.8373384475708</v>
       </c>
       <c r="G44" t="n">
-        <v>7.265664577484131</v>
+        <v>12.69078063964844</v>
       </c>
       <c r="H44" t="n">
-        <v>7.539642333984375</v>
+        <v>10.65058135986328</v>
       </c>
       <c r="I44" t="n">
-        <v>6.8254075050354</v>
+        <v>2.040199279785156</v>
       </c>
       <c r="J44" t="n">
-        <v>0.7142348289489746</v>
-      </c>
-      <c r="K44" t="n">
-        <v>21.2722812752925</v>
-      </c>
-      <c r="L44" t="n">
-        <v>6009.3755</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.1031824</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1.9886048</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.3009827</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.873272020427563</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.5009942714694978</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4.2639</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>HD 20430</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>15304</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>PM*</t>
+        <v>20.36015529670778</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1167838720595878400</t>
+          <t>115311458058061440</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1167838720595878400</t>
+          <t>115311458058061440</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1167838720595878400</t>
+          <t>115311458058061440</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>227.0854969603864</v>
+        <v>45.60960164514362</v>
       </c>
       <c r="E45" t="n">
-        <v>10.11379306695761</v>
+        <v>26.60849032781426</v>
       </c>
       <c r="F45" t="n">
-        <v>7.238679885864258</v>
+        <v>6.455846309661865</v>
       </c>
       <c r="G45" t="n">
-        <v>7.238679885864258</v>
+        <v>6.797202587127686</v>
       </c>
       <c r="H45" t="n">
-        <v>7.507746696472168</v>
+        <v>5.939840316772461</v>
       </c>
       <c r="I45" t="n">
-        <v>6.804308414459229</v>
+        <v>0.8573622703552246</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7034382820129395</v>
+        <v>47.18100005914773</v>
       </c>
       <c r="K45" t="n">
-        <v>20.06836859148358</v>
+        <v>5435.6226</v>
       </c>
       <c r="L45" t="n">
-        <v>6023.6343</v>
+        <v>0.9718934</v>
       </c>
       <c r="M45" t="n">
-        <v>1.1585029</v>
+        <v>0.8559386</v>
       </c>
       <c r="N45" t="n">
-        <v>2.2591395</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.3206754</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.9947332496246</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.5029315261314385</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4.1438</v>
+        <v>0.9588439</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>4.3607</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>HD 18803</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>GJ 120.2</t>
+        </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>HIP 14150</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
-        <is>
-          <t>HD 134228</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -4109,162 +3495,127 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>107774202769886848</t>
+          <t>1153462739205798528</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>107774202769886848</t>
+          <t>1153462739205798528</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>107774202769886848</t>
+          <t>1153462739205798528</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>34.35580267727129</v>
+        <v>225.058330030625</v>
       </c>
       <c r="E46" t="n">
-        <v>28.7447106416723</v>
+        <v>2.039716857327374</v>
       </c>
       <c r="F46" t="n">
-        <v>6.90409517288208</v>
+        <v>11.92024040222168</v>
       </c>
       <c r="G46" t="n">
-        <v>6.90409517288208</v>
+        <v>13.0671968460083</v>
       </c>
       <c r="H46" t="n">
-        <v>7.157693386077881</v>
+        <v>10.85695362091064</v>
       </c>
       <c r="I46" t="n">
-        <v>6.487691402435303</v>
+        <v>2.210243225097656</v>
       </c>
       <c r="J46" t="n">
-        <v>0.6700019836425781</v>
-      </c>
-      <c r="K46" t="n">
-        <v>25.27757747436875</v>
-      </c>
-      <c r="L46" t="n">
-        <v>6154.958</v>
+        <v>25.18347582515762</v>
       </c>
       <c r="M46" t="n">
-        <v>1.1427937</v>
+        <v>0.049813833</v>
       </c>
       <c r="N46" t="n">
-        <v>2.009556</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.2466539</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.865134525740296</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.5898344541686248</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4.2039</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>F</t>
+        <v>0.58613104</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>M</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>HD 14082</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>10680</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>BY*</t>
+          <t>PM*</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>102082477749475200</t>
+          <t>115364234616059392</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>102082477749475200</t>
+          <t>115364234616059392</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>102082477749475200</t>
+          <t>115364234616059392</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>39.24129515303115</v>
+        <v>44.71837163672802</v>
       </c>
       <c r="E47" t="n">
-        <v>24.64800884963116</v>
+        <v>26.77463304315022</v>
       </c>
       <c r="F47" t="n">
-        <v>6.979340553283691</v>
+        <v>7.974697589874268</v>
       </c>
       <c r="G47" t="n">
-        <v>6.979340553283691</v>
+        <v>8.412071228027344</v>
       </c>
       <c r="H47" t="n">
-        <v>7.22448205947876</v>
+        <v>7.369579792022705</v>
       </c>
       <c r="I47" t="n">
-        <v>6.553666114807129</v>
+        <v>1.042491436004639</v>
       </c>
       <c r="J47" t="n">
-        <v>0.6708159446716309</v>
+        <v>34.50452236555922</v>
       </c>
       <c r="K47" t="n">
-        <v>22.51072487326856</v>
+        <v>5025.751</v>
       </c>
       <c r="L47" t="n">
-        <v>6157.398</v>
+        <v>0.80132973</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1666826</v>
+        <v>0.42816928</v>
       </c>
       <c r="N47" t="n">
-        <v>2.3622801</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.350614</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.021887772691807</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.4735425182447809</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4.1395</v>
+        <v>0.84524983</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>4.4806</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>HD 18450</t>
+        </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>HIP 13891</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
-        <is>
-          <t>HD 16232</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>12184</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
@@ -4273,156 +3624,3460 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>108421608959951488</t>
+          <t>1154336202410495488</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>108421608959951488</t>
+          <t>1154336202410495488</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>108421608959951488</t>
+          <t>1154336202410495488</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>44.52286680706736</v>
+        <v>222.9724864421921</v>
       </c>
       <c r="E48" t="n">
-        <v>20.66859347955031</v>
+        <v>2.014983865209197</v>
       </c>
       <c r="F48" t="n">
-        <v>5.690481662750244</v>
+        <v>8.182125091552734</v>
       </c>
       <c r="G48" t="n">
-        <v>5.690481662750244</v>
+        <v>8.525748252868652</v>
       </c>
       <c r="H48" t="n">
-        <v>5.900089740753174</v>
+        <v>7.663158416748047</v>
       </c>
       <c r="I48" t="n">
-        <v>5.33803653717041</v>
+        <v>0.8625898361206055</v>
       </c>
       <c r="J48" t="n">
-        <v>0.5620532035827637</v>
+        <v>25.36810775575994</v>
       </c>
       <c r="K48" t="n">
-        <v>30.61534281025148</v>
+        <v>5521.1274</v>
       </c>
       <c r="L48" t="n">
-        <v>6561.451171875</v>
+        <v>0.9642712</v>
       </c>
       <c r="M48" t="n">
-        <v>1.3591957</v>
+        <v>0.62004685</v>
       </c>
       <c r="N48" t="n">
-        <v>4.154151</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.5118886</v>
-      </c>
-      <c r="P48" t="n">
-        <v>2.615585700340789</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.3932987941071592</v>
+        <v>0.86066896</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>4.4682</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>HD 131179</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>HIP 72703</t>
+        </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>HD 18404</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>13834</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>PM*</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>102082409030066560</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>102082409030066560</t>
+          <t>1154866579332084992</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>102082409030066560</t>
+          <t>1154866579332084992</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>39.2528503972963</v>
+        <v>225.8483705649142</v>
       </c>
       <c r="E49" t="n">
-        <v>24.64715136282451</v>
+        <v>3.785676041859341</v>
       </c>
       <c r="F49" t="n">
-        <v>6.400851726531982</v>
+        <v>11.35258197784424</v>
       </c>
       <c r="G49" t="n">
-        <v>6.400851726531982</v>
+        <v>12.29606533050537</v>
       </c>
       <c r="H49" t="n">
-        <v>6.600356578826904</v>
+        <v>10.39079284667969</v>
       </c>
       <c r="I49" t="n">
-        <v>6.0542311668396</v>
+        <v>1.905272483825684</v>
       </c>
       <c r="J49" t="n">
-        <v>0.5461254119873047</v>
-      </c>
-      <c r="K49" t="n">
-        <v>22.26083969141624</v>
-      </c>
-      <c r="L49" t="n">
-        <v>6632.1787</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.3406727</v>
-      </c>
-      <c r="N49" t="n">
-        <v>4.0950737</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.5491496</v>
-      </c>
-      <c r="P49" t="n">
-        <v>2.586577618866327</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.3606140872968666</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4.267</v>
-      </c>
-      <c r="S49" t="inlineStr">
+        <v>37.43632797156332</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>GJ 1188</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1155276250492687616</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1155276250492687616</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1155276250492687616</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>227.3956208741243</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.168959073157475</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10.37806034088135</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11.71226596832275</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9.236029624938965</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.476236343383789</v>
+      </c>
+      <c r="J50" t="n">
+        <v>68.45044122753534</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3166.075</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.027708692</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.55322343</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>4.0886</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>GJ 3892</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>HIP 74190</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1156350542072311936</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1156350542072311936</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>226.9978784125963</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.255690082387415</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9.316171646118164</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9.852948188781738</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8.611468315124512</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.241479873657227</v>
+      </c>
+      <c r="J51" t="n">
+        <v>20.36530000922021</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1156846524895814144</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1156846524895814144</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1156846524895814144</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>226.2203119931139</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5.635849045603566</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9.238290786743164</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10.03725624084473</v>
+      </c>
+      <c r="H52" t="n">
+        <v>8.363330841064453</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.673925399780273</v>
+      </c>
+      <c r="J52" t="n">
+        <v>52.50484862746125</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.631015</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.09288657</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.75032717</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>GJ 576</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>HIP 73786</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1157670986817726976</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1157670986817726976</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1157670986817726976</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>222.555828074865</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.831923465009835</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9.722125053405762</v>
+      </c>
+      <c r="G53" t="n">
+        <v>10.24830436706543</v>
+      </c>
+      <c r="H53" t="n">
+        <v>9.041496276855469</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.206808090209961</v>
+      </c>
+      <c r="J53" t="n">
+        <v>20.28000992927159</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4716.4263</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.7547015</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.26911595</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.77697027</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>4.552</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1157737335472646016</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1157737335472646016</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1157737335472646016</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>221.5681869463663</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.503804070595691</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7.256193161010742</v>
+      </c>
+      <c r="G54" t="n">
+        <v>7.526236534118652</v>
+      </c>
+      <c r="H54" t="n">
+        <v>6.816674709320068</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.709561824798584</v>
+      </c>
+      <c r="J54" t="n">
+        <v>24.50230155502727</v>
+      </c>
+      <c r="K54" t="n">
+        <v>5999.4307</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.1048813</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.5146358</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.1156372</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>4.3223</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>HD 16246</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>12189</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>HD 130125</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>HIP 72223</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1158184012071254400</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1158184012071254400</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>224.5806965523135</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.75972105857642</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9.90592098236084</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10.65865898132324</v>
+      </c>
+      <c r="H55" t="n">
+        <v>9.093828201293945</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.564830780029297</v>
+      </c>
+      <c r="J55" t="n">
+        <v>26.38622935638215</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4245.7266</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.16833764</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.7582968</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>HIP 73258</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1158503591997923072</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1158503591997923072</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1158503591997923072</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>223.0265735901832</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.391839400772994</v>
+      </c>
+      <c r="F56" t="n">
+        <v>11.28269958496094</v>
+      </c>
+      <c r="G56" t="n">
+        <v>12.30800247192383</v>
+      </c>
+      <c r="H56" t="n">
+        <v>10.27200412750244</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.035998344421387</v>
+      </c>
+      <c r="J56" t="n">
+        <v>29.10656691152034</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3679.8428</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.5445065</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.05092599</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.60754734</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>4.658</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1159380486880813952</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1159380486880813952</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>222.8165713010764</v>
+      </c>
+      <c r="E57" t="n">
+        <v>6.253749195524648</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10.37452411651611</v>
+      </c>
+      <c r="G57" t="n">
+        <v>11.00301361083984</v>
+      </c>
+      <c r="H57" t="n">
+        <v>9.617345809936523</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.38566780090332</v>
+      </c>
+      <c r="J57" t="n">
+        <v>22.49268936423259</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.68593997</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.12881175</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.5829412</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
         <is>
           <t>SB*</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1159502154714284544</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1159502154714284544</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1159502154714284544</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>221.4339827398354</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6.039605556637736</v>
+      </c>
+      <c r="F58" t="n">
+        <v>11.72430896759033</v>
+      </c>
+      <c r="G58" t="n">
+        <v>12.81121063232422</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10.69076633453369</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.120444297790527</v>
+      </c>
+      <c r="J58" t="n">
+        <v>26.07442798049953</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.5426467</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.051074356</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.57045937</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1159502498311670144</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1159502498311670144</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1159502498311670144</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>221.4363971455294</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6.061377273099621</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8.972812652587891</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9.456518173217773</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8.326896667480469</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.129621505737305</v>
+      </c>
+      <c r="J59" t="n">
+        <v>26.09714855960928</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4907.8716</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.7657769</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.30908722</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.7760755</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>4.5328</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>HD 130027</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1159605302648975104</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1159605302648975104</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1159605302648975104</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>222.5845573398771</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6.814635874752399</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8.778704643249512</v>
+      </c>
+      <c r="G60" t="n">
+        <v>9.286910057067871</v>
+      </c>
+      <c r="H60" t="n">
+        <v>8.111459732055664</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.175450325012207</v>
+      </c>
+      <c r="J60" t="n">
+        <v>32.19761766760166</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4749.4453</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.7875459</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.24646318</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.70079786</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>4.5558</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>HD 130871</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>GJ 9497</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>HIP 72577</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1159745146784043264</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1159745146784043264</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1159745146784043264</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>225.3341550448648</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5.546794272660181</v>
+      </c>
+      <c r="F61" t="n">
+        <v>11.07474517822266</v>
+      </c>
+      <c r="G61" t="n">
+        <v>12.49263763427734</v>
+      </c>
+      <c r="H61" t="n">
+        <v>9.904657363891602</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.587980270385742</v>
+      </c>
+      <c r="J61" t="n">
+        <v>66.54279042104358</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3189.273</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.016192071</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.41713613</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>4.4734</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>GJ 3885</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1160184436039120128</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1160184436039120128</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1160184436039120128</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>224.7308453021665</v>
+      </c>
+      <c r="E62" t="n">
+        <v>6.605280698192328</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8.22670841217041</v>
+      </c>
+      <c r="G62" t="n">
+        <v>8.656667709350586</v>
+      </c>
+      <c r="H62" t="n">
+        <v>7.611197948455811</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.045469760894775</v>
+      </c>
+      <c r="J62" t="n">
+        <v>27.43125434572484</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>HD 132425</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>HIP 73314</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>116037204451525376</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>116037204451525376</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>116037204451525376</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>43.91406593452299</v>
+      </c>
+      <c r="E63" t="n">
+        <v>26.87235600884521</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7.345056533813477</v>
+      </c>
+      <c r="G63" t="n">
+        <v>7.795044422149658</v>
+      </c>
+      <c r="H63" t="n">
+        <v>6.729426383972168</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.06561803817749</v>
+      </c>
+      <c r="J63" t="n">
+        <v>44.43239202208633</v>
+      </c>
+      <c r="K63" t="n">
+        <v>5059.663</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.8100857</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.45153892</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.8505562</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>4.4771</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>HD 18143</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>GJ 9105</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>HIP 13642</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>116037371954842240</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>116037371954842240</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>116037371954842240</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>43.91308317587121</v>
+      </c>
+      <c r="E64" t="n">
+        <v>26.87135846439827</v>
+      </c>
+      <c r="F64" t="n">
+        <v>9.261382102966309</v>
+      </c>
+      <c r="G64" t="n">
+        <v>10.09530639648438</v>
+      </c>
+      <c r="H64" t="n">
+        <v>8.357308387756348</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.737998008728027</v>
+      </c>
+      <c r="J64" t="n">
+        <v>44.50529072492505</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.6507846</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.117574506</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.71064043</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>HD 18143</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>GJ 9105</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1160612111702571776</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1160612111702571776</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1160612111702571776</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>225.2925114698749</v>
+      </c>
+      <c r="E65" t="n">
+        <v>7.16290377551937</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11.53107166290283</v>
+      </c>
+      <c r="G65" t="n">
+        <v>12.98853874206543</v>
+      </c>
+      <c r="H65" t="n">
+        <v>10.33582210540771</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.652716636657715</v>
+      </c>
+      <c r="J65" t="n">
+        <v>31.92621722761648</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>GJ 3884</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1160716496587849088</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1160716496587849088</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1160716496587849088</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>226.5891889948991</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7.715178942067549</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11.42816925048828</v>
+      </c>
+      <c r="G66" t="n">
+        <v>12.57371711730957</v>
+      </c>
+      <c r="H66" t="n">
+        <v>10.36349201202393</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.210225105285645</v>
+      </c>
+      <c r="J66" t="n">
+        <v>29.90840471964793</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3562.4614</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.044084262</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.5513362000000001</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>4.629</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>LM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1160956465000504448</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1160956465000504448</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1160956465000504448</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>224.544569911859</v>
+      </c>
+      <c r="E67" t="n">
+        <v>6.905378758366146</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7.955729484558105</v>
+      </c>
+      <c r="G67" t="n">
+        <v>8.343930244445801</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7.398594856262207</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.9453353881835938</v>
+      </c>
+      <c r="J67" t="n">
+        <v>28.81553758216229</v>
+      </c>
+      <c r="K67" t="n">
+        <v>5348.5693</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.8611668</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5956098</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.8974487</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>4.4572</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>HD 132307</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>HIP 73245</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1161042158187967232</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1161042158187967232</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1161042158187967232</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>223.9492534227919</v>
+      </c>
+      <c r="E68" t="n">
+        <v>7.296578966201051</v>
+      </c>
+      <c r="F68" t="n">
+        <v>10.56032085418701</v>
+      </c>
+      <c r="G68" t="n">
+        <v>11.48095703125</v>
+      </c>
+      <c r="H68" t="n">
+        <v>9.614326477050781</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.866630554199219</v>
+      </c>
+      <c r="J68" t="n">
+        <v>25.38772739525393</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>HIP 73056</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1161759314647344896</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1161759314647344896</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1161759314647344896</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>224.2005278032022</v>
+      </c>
+      <c r="E69" t="n">
+        <v>8.600094938433756</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8.422953605651855</v>
+      </c>
+      <c r="G69" t="n">
+        <v>8.830127716064453</v>
+      </c>
+      <c r="H69" t="n">
+        <v>7.846291542053223</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.9838361740112305</v>
+      </c>
+      <c r="J69" t="n">
+        <v>26.82248477044975</v>
+      </c>
+      <c r="K69" t="n">
+        <v>5219.042</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.9041954</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.45268345</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.79961824</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>4.5133</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>HD 132051</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>HIP 73138</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1161797900633510144</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1161797900633510144</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1161797900633510144</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>225.1453271060597</v>
+      </c>
+      <c r="E70" t="n">
+        <v>8.598757150543472</v>
+      </c>
+      <c r="F70" t="n">
+        <v>7.085587501525879</v>
+      </c>
+      <c r="G70" t="n">
+        <v>7.427216053009033</v>
+      </c>
+      <c r="H70" t="n">
+        <v>6.562463283538818</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.8647527694702148</v>
+      </c>
+      <c r="J70" t="n">
+        <v>26.2550638459063</v>
+      </c>
+      <c r="K70" t="n">
+        <v>5473.4116</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.93789744</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.5872085</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.3452358</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>4.1995</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>HD 132756</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>HIP 73449</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>SB*</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>116261779701601152</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>116261779701601152</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>116261779701601152</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>43.10429928301713</v>
+      </c>
+      <c r="E71" t="n">
+        <v>26.97395163924944</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10.26384353637695</v>
+      </c>
+      <c r="G71" t="n">
+        <v>11.31416034698486</v>
+      </c>
+      <c r="H71" t="n">
+        <v>9.247296333312988</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.066864013671875</v>
+      </c>
+      <c r="J71" t="n">
+        <v>42.79327804115827</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3670.2495</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.06202481</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.7040499</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>4.6024</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>GJ 3186</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>HIP 13398</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1162946718486550272</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1162946718485093632</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1162946718486550272</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>231.9386807919724</v>
+      </c>
+      <c r="E72" t="n">
+        <v>7.675255038899533</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10.51125049591064</v>
+      </c>
+      <c r="G72" t="n">
+        <v>11.61302947998047</v>
+      </c>
+      <c r="H72" t="n">
+        <v>9.463079452514648</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.14995002746582</v>
+      </c>
+      <c r="J72" t="n">
+        <v>48.23458437950384</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3617.5254</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.038946535</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.50243264</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>4.7219</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1163192665493054336</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1163192665493054336</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1163192665493054336</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>229.1184143838475</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7.045020912522606</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10.03621673583984</v>
+      </c>
+      <c r="G73" t="n">
+        <v>10.68274784088135</v>
+      </c>
+      <c r="H73" t="n">
+        <v>9.271669387817383</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.411078453063965</v>
+      </c>
+      <c r="J73" t="n">
+        <v>21.19489316328587</v>
+      </c>
+      <c r="K73" t="n">
+        <v>4457.4204</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.71443903</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.20070389</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.74331903</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>4.5787</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>116339982465090048</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>116339982465090048</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>42.49629807071216</v>
+      </c>
+      <c r="E74" t="n">
+        <v>27.26000485763864</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3.550028562545776</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3.6964271068573</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.672695398330688</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.02373170852661133</v>
+      </c>
+      <c r="J74" t="n">
+        <v>21.1623930905554</v>
+      </c>
+      <c r="K74" t="n">
+        <v>7836</v>
+      </c>
+      <c r="M74" t="n">
+        <v>64.601</v>
+      </c>
+      <c r="N74" t="n">
+        <v>4.360973</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>HD 17573</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>HIP 13209</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1163549697534289664</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1163549697534289664</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1163549697534289664</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>228.9394036629564</v>
+      </c>
+      <c r="E75" t="n">
+        <v>7.596967758249446</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10.12505626678467</v>
+      </c>
+      <c r="G75" t="n">
+        <v>10.9206657409668</v>
+      </c>
+      <c r="H75" t="n">
+        <v>9.257136344909668</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.663529396057129</v>
+      </c>
+      <c r="J75" t="n">
+        <v>31.57305830800776</v>
+      </c>
+      <c r="K75" t="n">
+        <v>4035.3035</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.63564074</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.10219275</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.68985665</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4.5689</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>GJ 9515</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>HIP 74682</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1164145048721331968</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1164145048721331968</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1164145048721331968</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>230.25223004433</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9.241425879159486</v>
+      </c>
+      <c r="F76" t="n">
+        <v>11.73380661010742</v>
+      </c>
+      <c r="G76" t="n">
+        <v>12.81869316101074</v>
+      </c>
+      <c r="H76" t="n">
+        <v>10.69664573669434</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.122047424316406</v>
+      </c>
+      <c r="J76" t="n">
+        <v>20.49240385688043</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.63276213</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.0998332</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.76244485</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>116456668137575040</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>116456668137575040</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>116456668137575040</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>43.92324649504216</v>
+      </c>
+      <c r="E77" t="n">
+        <v>28.12922558527418</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10.40493679046631</v>
+      </c>
+      <c r="G77" t="n">
+        <v>11.27776622772217</v>
+      </c>
+      <c r="H77" t="n">
+        <v>9.490771293640137</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.786994934082031</v>
+      </c>
+      <c r="J77" t="n">
+        <v>30.19690370390601</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>HIP 13644</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1165262633571848064</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1165262633571848064</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1165262633571848064</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>234.4973112096774</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10.23828292217312</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6.956505298614502</v>
+      </c>
+      <c r="G78" t="n">
+        <v>7.208679676055908</v>
+      </c>
+      <c r="H78" t="n">
+        <v>6.499315738677979</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.7093639373779297</v>
+      </c>
+      <c r="J78" t="n">
+        <v>21.13066511679369</v>
+      </c>
+      <c r="K78" t="n">
+        <v>5961.5234</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.1046791</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2.749848</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.572598</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>3.9514</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>HD 139457</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>HIP 76543</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1165859359148269568</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1165859359148269568</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1165859359148269568</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>231.9064969657568</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10.59302812963398</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9.297941207885742</v>
+      </c>
+      <c r="G79" t="n">
+        <v>10.05334186553955</v>
+      </c>
+      <c r="H79" t="n">
+        <v>8.45357608795166</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.599765777587891</v>
+      </c>
+      <c r="J79" t="n">
+        <v>36.547564682283</v>
+      </c>
+      <c r="K79" t="n">
+        <v>4152.3936</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.68337804</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.15545471</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.75346327</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>4.5237</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>GJ 3906</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>HIP 75672</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1166203712446038912</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1166203712446038912</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1166203712446038912</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>232.9167845388779</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10.6870149308112</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10.92703819274902</v>
+      </c>
+      <c r="G80" t="n">
+        <v>11.91320610046387</v>
+      </c>
+      <c r="H80" t="n">
+        <v>9.943630218505859</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.969575881958008</v>
+      </c>
+      <c r="J80" t="n">
+        <v>31.47743384624868</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1166216253750406144</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1166216253750406144</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1166216253750406144</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>233.1818613743089</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10.96900411979796</v>
+      </c>
+      <c r="F81" t="n">
+        <v>7.072253704071045</v>
+      </c>
+      <c r="G81" t="n">
+        <v>7.394053936004639</v>
+      </c>
+      <c r="H81" t="n">
+        <v>6.575738906860352</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.8183150291442871</v>
+      </c>
+      <c r="J81" t="n">
+        <v>33.13733759982472</v>
+      </c>
+      <c r="K81" t="n">
+        <v>5656.0493</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.98167807</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.98888296</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1.0067558</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>4.3399</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>HD 138573</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>HIP 76114</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1166577855636534144</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1166577855636534144</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1166577855636534144</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>228.4334831455246</v>
+      </c>
+      <c r="E82" t="n">
+        <v>7.903522678361022</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11.78533935546875</v>
+      </c>
+      <c r="G82" t="n">
+        <v>13.04007244110107</v>
+      </c>
+      <c r="H82" t="n">
+        <v>10.67165088653564</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.36842155456543</v>
+      </c>
+      <c r="J82" t="n">
+        <v>22.73495014251044</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3252.5945</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.06487165</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.80186117</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>3.9156</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1167718049194619136</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1167718049194619136</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1167718049194619136</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>226.8858250837715</v>
+      </c>
+      <c r="E83" t="n">
+        <v>9.225199663187755</v>
+      </c>
+      <c r="F83" t="n">
+        <v>7.378372669219971</v>
+      </c>
+      <c r="G83" t="n">
+        <v>7.709477424621582</v>
+      </c>
+      <c r="H83" t="n">
+        <v>6.867691993713379</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.8417854309082031</v>
+      </c>
+      <c r="J83" t="n">
+        <v>30.40685589977081</v>
+      </c>
+      <c r="K83" t="n">
+        <v>5597.0737</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.9192066</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8929874</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1.0049579</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>4.3662</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>HD 134066</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1167718049194619264</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1167718049194619264</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1167718049194619264</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>226.8863958344199</v>
+      </c>
+      <c r="E84" t="n">
+        <v>9.226136166488667</v>
+      </c>
+      <c r="F84" t="n">
+        <v>7.188706398010254</v>
+      </c>
+      <c r="G84" t="n">
+        <v>7.506394386291504</v>
+      </c>
+      <c r="H84" t="n">
+        <v>6.699463844299316</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.8069305419921875</v>
+      </c>
+      <c r="J84" t="n">
+        <v>30.42952416106248</v>
+      </c>
+      <c r="K84" t="n">
+        <v>5681.8643</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.9468841</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1.0567073</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.0608621</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>4.323</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>HD 134066</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1167838720595878400</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1167838720595878400</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1167838720595878400</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>227.0854969603864</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10.11379306695761</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7.238679885864258</v>
+      </c>
+      <c r="G85" t="n">
+        <v>7.507746696472168</v>
+      </c>
+      <c r="H85" t="n">
+        <v>6.804308414459229</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.7034382820129395</v>
+      </c>
+      <c r="J85" t="n">
+        <v>20.06836859148358</v>
+      </c>
+      <c r="K85" t="n">
+        <v>6023.6343</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1.1585029</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2.2591395</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1.3206754</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>4.1438</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>HD 134228</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1168984617870183808</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1168984617870183808</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>229.6742963855598</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10.42768384150645</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7.020629405975342</v>
+      </c>
+      <c r="G86" t="n">
+        <v>7.260996341705322</v>
+      </c>
+      <c r="H86" t="n">
+        <v>6.612955093383789</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.6480412483215332</v>
+      </c>
+      <c r="J86" t="n">
+        <v>20.73602266401269</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1.2094237</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2.6423757</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1.3589283</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>HD 136160</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>HIP 74930</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1169984108299812608</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1169984108299812608</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1169984108299812608</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>229.896961447876</v>
+      </c>
+      <c r="E87" t="n">
+        <v>11.9222391634777</v>
+      </c>
+      <c r="F87" t="n">
+        <v>9.54007625579834</v>
+      </c>
+      <c r="G87" t="n">
+        <v>10.21389102935791</v>
+      </c>
+      <c r="H87" t="n">
+        <v>8.747791290283203</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.466099739074707</v>
+      </c>
+      <c r="J87" t="n">
+        <v>31.26436516952251</v>
+      </c>
+      <c r="K87" t="n">
+        <v>4371.416</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.6829337</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.15458062</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.68548906</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>4.6309</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1170092547633728256</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1170092547633728256</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1170092547633728256</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>228.556292645265</v>
+      </c>
+      <c r="E88" t="n">
+        <v>11.51703850477221</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11.90250110626221</v>
+      </c>
+      <c r="G88" t="n">
+        <v>12.90983009338379</v>
+      </c>
+      <c r="H88" t="n">
+        <v>10.90800094604492</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2.001829147338867</v>
+      </c>
+      <c r="J88" t="n">
+        <v>22.14924020338567</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1170098251350303616</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1170098251350303616</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>228.5455418987976</v>
+      </c>
+      <c r="E89" t="n">
+        <v>11.61213329277851</v>
+      </c>
+      <c r="F89" t="n">
+        <v>11.79367065429688</v>
+      </c>
+      <c r="G89" t="n">
+        <v>11.86412811279297</v>
+      </c>
+      <c r="H89" t="n">
+        <v>10.88472366333008</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.9794044494628906</v>
+      </c>
+      <c r="J89" t="n">
+        <v>21.62250477878035</v>
+      </c>
+      <c r="K89" t="n">
+        <v>5163.2</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1170359243627867904</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1170359243627867904</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1170359243627867904</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>229.1379097150246</v>
+      </c>
+      <c r="E90" t="n">
+        <v>12.95700255917345</v>
+      </c>
+      <c r="F90" t="n">
+        <v>11.94829177856445</v>
+      </c>
+      <c r="G90" t="n">
+        <v>13.30467796325684</v>
+      </c>
+      <c r="H90" t="n">
+        <v>10.79853439331055</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.506143569946289</v>
+      </c>
+      <c r="J90" t="n">
+        <v>33.97409197422058</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3206.9421</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.023853593</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.500221</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1170797781264303616</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1170797781264303616</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1170797781264303616</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>230.7157122592357</v>
+      </c>
+      <c r="E91" t="n">
+        <v>13.36630798511878</v>
+      </c>
+      <c r="F91" t="n">
+        <v>7.757489204406738</v>
+      </c>
+      <c r="G91" t="n">
+        <v>8.074392318725586</v>
+      </c>
+      <c r="H91" t="n">
+        <v>7.264061450958252</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.810330867767334</v>
+      </c>
+      <c r="J91" t="n">
+        <v>20.83019518506963</v>
+      </c>
+      <c r="K91" t="n">
+        <v>5638.635</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.96878815</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.3450086</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1.1686629</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>4.2818</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>HD 136925</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>HIP 75281</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1171453979251962624</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1171453979251962624</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1171453979251962624</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>218.814236120874</v>
+      </c>
+      <c r="E92" t="n">
+        <v>6.659376833664971</v>
+      </c>
+      <c r="F92" t="n">
+        <v>11.34476757049561</v>
+      </c>
+      <c r="G92" t="n">
+        <v>12.27269649505615</v>
+      </c>
+      <c r="H92" t="n">
+        <v>10.39526081085205</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.877435684204102</v>
+      </c>
+      <c r="J92" t="n">
+        <v>22.54613987791353</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1171574685013520640</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1171574685013520640</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1171574685013520640</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>220.3863349859695</v>
+      </c>
+      <c r="E93" t="n">
+        <v>6.461446291081438</v>
+      </c>
+      <c r="F93" t="n">
+        <v>11.17523860931396</v>
+      </c>
+      <c r="G93" t="n">
+        <v>12.24888038635254</v>
+      </c>
+      <c r="H93" t="n">
+        <v>10.14765071868896</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2.101229667663574</v>
+      </c>
+      <c r="J93" t="n">
+        <v>30.97636709617456</v>
+      </c>
+      <c r="K93" t="n">
+        <v>3655.0586</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.54433686</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.050979074</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.57753325</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>4.6622</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>HIP 71824</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1172340086840027264</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1172340086840027264</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>218.5355563749158</v>
+      </c>
+      <c r="E94" t="n">
+        <v>7.622615116432518</v>
+      </c>
+      <c r="F94" t="n">
+        <v>9.295066833496094</v>
+      </c>
+      <c r="G94" t="n">
+        <v>9.800766944885254</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8.671527862548828</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.129239082336426</v>
+      </c>
+      <c r="J94" t="n">
+        <v>20.10134047584143</v>
+      </c>
+      <c r="K94" t="n">
+        <v>5021.6665</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.38764334</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.8225704</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1173206811240350592</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1173206811240350592</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1173206811240350592</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>221.9613981066783</v>
+      </c>
+      <c r="E95" t="n">
+        <v>7.416475623456087</v>
+      </c>
+      <c r="F95" t="n">
+        <v>10.9074821472168</v>
+      </c>
+      <c r="G95" t="n">
+        <v>11.86791801452637</v>
+      </c>
+      <c r="H95" t="n">
+        <v>9.918146133422852</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.949771881103516</v>
+      </c>
+      <c r="J95" t="n">
+        <v>24.00320214984089</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3500.9248</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.6346938</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.103062384</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.87265027</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>4.0056</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1173847139324624256</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1173847139324624256</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1173847139324624256</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>223.0433895526391</v>
+      </c>
+      <c r="E96" t="n">
+        <v>9.098892591310703</v>
+      </c>
+      <c r="F96" t="n">
+        <v>9.811841011047363</v>
+      </c>
+      <c r="G96" t="n">
+        <v>10.35730361938477</v>
+      </c>
+      <c r="H96" t="n">
+        <v>9.119866371154785</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.23743724822998</v>
+      </c>
+      <c r="J96" t="n">
+        <v>20.09357736590265</v>
+      </c>
+      <c r="K96" t="n">
+        <v>4649.595</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.75460005</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.25242245</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.7490895</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>4.5385</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1173992103060678272</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1173992103060678272</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1173992103060678272</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>224.0375646430798</v>
+      </c>
+      <c r="E97" t="n">
+        <v>9.776059449246468</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11.60509300231934</v>
+      </c>
+      <c r="G97" t="n">
+        <v>12.64749526977539</v>
+      </c>
+      <c r="H97" t="n">
+        <v>10.58935356140137</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2.058141708374023</v>
+      </c>
+      <c r="J97" t="n">
+        <v>22.80124607671556</v>
+      </c>
+      <c r="K97" t="n">
+        <v>3423.0789</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.5808807</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.06744102</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.6588628</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>4.0415</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1174143182830505856</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1174143182830505856</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1174143182830505856</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>222.7571087231885</v>
+      </c>
+      <c r="E98" t="n">
+        <v>9.722406353251976</v>
+      </c>
+      <c r="F98" t="n">
+        <v>9.262155532836914</v>
+      </c>
+      <c r="G98" t="n">
+        <v>9.921577453613281</v>
+      </c>
+      <c r="H98" t="n">
+        <v>8.474523544311523</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1.447053909301758</v>
+      </c>
+      <c r="J98" t="n">
+        <v>33.28295704331168</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>HD 131023</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>GJ 3869</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1174143182830505984</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1174143182830505984</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1174143182830505984</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>222.7586685366781</v>
+      </c>
+      <c r="E99" t="n">
+        <v>9.72392000919409</v>
+      </c>
+      <c r="F99" t="n">
+        <v>7.335746288299561</v>
+      </c>
+      <c r="G99" t="n">
+        <v>7.692070007324219</v>
+      </c>
+      <c r="H99" t="n">
+        <v>6.804160118103027</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.8879098892211914</v>
+      </c>
+      <c r="J99" t="n">
+        <v>33.29165665954585</v>
+      </c>
+      <c r="K99" t="n">
+        <v>5496.29</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.88464314</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7743672</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.97053236</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>4.4156</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>HD 131023</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>GJ 3868</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>HIP 72634</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1174189362318863488</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1174189362317947776</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1174189362318863488</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>223.7214436969634</v>
+      </c>
+      <c r="E100" t="n">
+        <v>9.941697319315702</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10.47822284698486</v>
+      </c>
+      <c r="G100" t="n">
+        <v>11.47632789611816</v>
+      </c>
+      <c r="H100" t="n">
+        <v>9.481466293334961</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.994861602783203</v>
+      </c>
+      <c r="J100" t="n">
+        <v>40.33017348362118</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.5486286</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.053100567</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.5929875999999999</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>GJ 3874</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>HIP 72981</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>PM*</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1174513645233715584</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1174513645237833984</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1174513645233715584</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>221.5652678486585</v>
+      </c>
+      <c r="E101" t="n">
+        <v>9.645560859432685</v>
+      </c>
+      <c r="F101" t="n">
+        <v>7.594826698303223</v>
+      </c>
+      <c r="G101" t="n">
+        <v>7.791135787963867</v>
+      </c>
+      <c r="H101" t="n">
+        <v>6.950729846954346</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.8404059410095215</v>
+      </c>
+      <c r="J101" t="n">
+        <v>22.86171618639112</v>
+      </c>
+      <c r="K101" t="n">
+        <v>5844.399</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.94155294</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.3257118</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1.2001735</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>4.2656</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>HD 130145</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>PM*</t>
         </is>
       </c>
     </row>

--- a/results/consolidated_results.xlsx
+++ b/results/consolidated_results.xlsx
@@ -434,7 +434,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
@@ -561,7 +561,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100254161710940928</t>
+          <t>Gaia DR3 100254161710940928</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>100380639907919872</t>
+          <t>Gaia DR3 100380639907919872</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -711,7 +711,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>100586763978318208</t>
+          <t>Gaia DR3 100586763978318208</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -773,7 +773,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>100665065526715008</t>
+          <t>Gaia DR3 100665065526715008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -821,7 +821,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>101283987497967360</t>
+          <t>Gaia DR3 101283987497967360</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>101309452355657216</t>
+          <t>Gaia DR3 101309452355657216</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>101489256866566528</t>
+          <t>Gaia DR3 101489256866566528</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1020,7 +1020,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>101612981989146752</t>
+          <t>Gaia DR3 101612981989146752</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1073,7 +1073,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>102082409030066560</t>
+          <t>Gaia DR3 102082409030066560</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1148,7 +1148,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>102082477749475200</t>
+          <t>Gaia DR3 102082477749475200</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1223,7 +1223,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>102162639019033600</t>
+          <t>Gaia DR3 102162639019033600</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1290,7 +1290,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>102648588798884736</t>
+          <t>Gaia DR3 102648588798884736</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1355,7 +1355,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>103124230657005568</t>
+          <t>Gaia DR3 103124230657005568</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1417,7 +1417,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>103173223348678144</t>
+          <t>Gaia DR3 103173223348678144</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1479,7 +1479,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>103363168277756928</t>
+          <t>Gaia DR3 103363168277756928</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>103649316178540416</t>
+          <t>Gaia DR3 103649316178540416</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1616,7 +1616,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>103942679624729088</t>
+          <t>Gaia DR3 103942679624729088</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1681,7 +1681,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>104453918172129792</t>
+          <t>Gaia DR3 104453918172129792</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>104716907609412352</t>
+          <t>Gaia DR3 104716907609412352</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1814,7 +1814,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>104717285566534016</t>
+          <t>Gaia DR3 104717285566534016</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1884,7 +1884,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>104752950974981760</t>
+          <t>Gaia DR2 104752950974981760</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>105332908999068032</t>
+          <t>Gaia DR3 105332908999068032</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2011,7 +2011,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>105599987244856064</t>
+          <t>Gaia DR2 105599987244856064</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2045,7 +2045,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10584899657116672</t>
+          <t>Gaia DR3 10584899657116672</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2120,7 +2120,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>105850121845012608</t>
+          <t>Gaia DR3 105850121845012608</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2168,7 +2168,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>106051542927008128</t>
+          <t>Gaia DR3 106051542927008128</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2243,7 +2243,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10608573516849536</t>
+          <t>Gaia DR3 10608573516849536</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2318,7 +2318,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>106774952858617088</t>
+          <t>Gaia DR3 106774952858617088</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2393,7 +2393,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>107175480033033472</t>
+          <t>Gaia DR3 107175480033033472</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2455,7 +2455,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>107774198474602368</t>
+          <t>Gaia DR3 107774198474602368</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2530,7 +2530,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>107774202769886848</t>
+          <t>Gaia DR3 107774202769886848</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2605,7 +2605,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>108421608959951488</t>
+          <t>Gaia DR3 108421608959951488</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2667,7 +2667,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>109051246870008448</t>
+          <t>Gaia DR3 109051246870008448</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2737,7 +2737,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>109628013733250304</t>
+          <t>Gaia DR3 109628013733250304</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2799,7 +2799,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>109931856900594432</t>
+          <t>Gaia DR3 109931856900594432</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2874,7 +2874,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>11037726649058432</t>
+          <t>Gaia DR3 11037726649058432</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2941,7 +2941,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>111379432679196672</t>
+          <t>Gaia DR3 111379432679196672</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3013,7 +3013,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>11210418694164864</t>
+          <t>Gaia DR2 11210418694164864</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3083,7 +3083,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>112440873718983680</t>
+          <t>Gaia DR3 112440873718983680</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3145,7 +3145,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>114207651462714880</t>
+          <t>Gaia DR3 114207651462714880</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3217,7 +3217,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>114575472461716864</t>
+          <t>Gaia DR3 114575472461716864</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3297,7 +3297,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>114832620743735808</t>
+          <t>Gaia DR3 114832620743735808</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3377,7 +3377,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>11530342218200448</t>
+          <t>Gaia DR3 11530342218200448</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3415,7 +3415,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>115311458058061440</t>
+          <t>Gaia DR3 115311458058061440</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3495,7 +3495,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1153462739205798528</t>
+          <t>Gaia DR3 1153462739205798528</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3549,7 +3549,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>115364234616059392</t>
+          <t>Gaia DR3 115364234616059392</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3624,7 +3624,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1154336202410495488</t>
+          <t>Gaia DR3 1154336202410495488</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3699,7 +3699,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1154866579332084992</t>
+          <t>Gaia DR3 1154866579332084992</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3747,7 +3747,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1155276250492687616</t>
+          <t>Gaia DR3 1155276250492687616</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3819,7 +3819,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1156350542072311936</t>
+          <t>Gaia DR3 1156350542072311936</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3862,7 +3862,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1156846524895814144</t>
+          <t>Gaia DR3 1156846524895814144</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3929,7 +3929,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1157670986817726976</t>
+          <t>Gaia DR3 1157670986817726976</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3994,7 +3994,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1157737335472646016</t>
+          <t>Gaia DR3 1157737335472646016</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4069,7 +4069,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1158184012071254400</t>
+          <t>Gaia DR2 1158184012071254400</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4126,7 +4126,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1158503591997923072</t>
+          <t>Gaia DR3 1158503591997923072</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4191,7 +4191,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1159380486880813952</t>
+          <t>Gaia DR3 1159380486880813952</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4243,7 +4243,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1159502154714284544</t>
+          <t>Gaia DR3 1159502154714284544</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4300,7 +4300,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1159502498311670144</t>
+          <t>Gaia DR3 1159502498311670144</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4370,7 +4370,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1159605302648975104</t>
+          <t>Gaia DR3 1159605302648975104</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4450,7 +4450,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1159745146784043264</t>
+          <t>Gaia DR3 1159745146784043264</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4517,7 +4517,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1160184436039120128</t>
+          <t>Gaia DR3 1160184436039120128</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4575,7 +4575,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>116037204451525376</t>
+          <t>Gaia DR3 116037204451525376</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4655,7 +4655,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>116037371954842240</t>
+          <t>Gaia DR3 116037371954842240</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4722,7 +4722,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1160612111702571776</t>
+          <t>Gaia DR3 1160612111702571776</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4775,7 +4775,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1160716496587849088</t>
+          <t>Gaia DR3 1160716496587849088</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4837,7 +4837,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1160956465000504448</t>
+          <t>Gaia DR3 1160956465000504448</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4912,7 +4912,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1161042158187967232</t>
+          <t>Gaia DR3 1161042158187967232</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4965,7 +4965,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1161759314647344896</t>
+          <t>Gaia DR3 1161759314647344896</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5040,7 +5040,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1161797900633510144</t>
+          <t>Gaia DR3 1161797900633510144</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5115,7 +5115,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>116261779701601152</t>
+          <t>Gaia DR3 116261779701601152</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5187,7 +5187,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1162946718486550272</t>
+          <t>Gaia DR3 1162946718486550272</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5249,7 +5249,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1163192665493054336</t>
+          <t>Gaia DR3 1163192665493054336</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5314,7 +5314,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>116339982465090048</t>
+          <t>Gaia DR2 116339982465090048</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5371,7 +5371,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1163549697534289664</t>
+          <t>Gaia DR3 1163549697534289664</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5446,7 +5446,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1164145048721331968</t>
+          <t>Gaia DR3 1164145048721331968</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5503,7 +5503,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>116456668137575040</t>
+          <t>Gaia DR3 116456668137575040</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5556,7 +5556,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1165262633571848064</t>
+          <t>Gaia DR3 1165262633571848064</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5631,7 +5631,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1165859359148269568</t>
+          <t>Gaia DR3 1165859359148269568</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5706,7 +5706,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1166203712446038912</t>
+          <t>Gaia DR3 1166203712446038912</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5754,7 +5754,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1166216253750406144</t>
+          <t>Gaia DR3 1166216253750406144</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5829,7 +5829,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1166577855636534144</t>
+          <t>Gaia DR3 1166577855636534144</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5891,7 +5891,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1167718049194619136</t>
+          <t>Gaia DR3 1167718049194619136</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5961,7 +5961,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1167718049194619264</t>
+          <t>Gaia DR3 1167718049194619264</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6031,7 +6031,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1167838720595878400</t>
+          <t>Gaia DR3 1167838720595878400</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6101,7 +6101,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1168984617870183808</t>
+          <t>Gaia DR3 1168984617870183808</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -6158,7 +6158,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1169984108299812608</t>
+          <t>Gaia DR3 1169984108299812608</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6223,7 +6223,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1170092547633728256</t>
+          <t>Gaia DR3 1170092547633728256</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6271,7 +6271,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1170098251350303616</t>
+          <t>Gaia DR2 1170098251350303616</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6312,7 +6312,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1170359243627867904</t>
+          <t>Gaia DR3 1170359243627867904</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6374,7 +6374,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1170797781264303616</t>
+          <t>Gaia DR3 1170797781264303616</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6449,7 +6449,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1171453979251962624</t>
+          <t>Gaia DR3 1171453979251962624</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6497,7 +6497,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1171574685013520640</t>
+          <t>Gaia DR3 1171574685013520640</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6567,7 +6567,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1172340086840027264</t>
+          <t>Gaia DR2 1172340086840027264</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6619,7 +6619,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1173206811240350592</t>
+          <t>Gaia DR3 1173206811240350592</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6684,7 +6684,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1173847139324624256</t>
+          <t>Gaia DR3 1173847139324624256</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6749,7 +6749,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1173992103060678272</t>
+          <t>Gaia DR3 1173992103060678272</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6814,7 +6814,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1174143182830505856</t>
+          <t>Gaia DR3 1174143182830505856</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6867,7 +6867,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1174143182830505984</t>
+          <t>Gaia DR3 1174143182830505984</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6947,7 +6947,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1174189362318863488</t>
+          <t>Gaia DR3 1174189362318863488</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -7014,7 +7014,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1174513645233715584</t>
+          <t>Gaia DR3 1174513645233715584</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
